--- a/data/trans_orig/P39A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>19225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11417</v>
+        <v>11141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30240</v>
+        <v>29944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08393497947457867</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04984583563675055</v>
+        <v>0.04864020622996942</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1320228317723262</v>
+        <v>0.1307306050932011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -764,19 +764,19 @@
         <v>16373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9595</v>
+        <v>8986</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27102</v>
+        <v>28151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06975860132887202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04087848648659709</v>
+        <v>0.03828676081968241</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.115469728895809</v>
+        <v>0.1199364819326333</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -785,19 +785,19 @@
         <v>35599</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24884</v>
+        <v>24315</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50347</v>
+        <v>50357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07676024090017022</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05365723225355001</v>
+        <v>0.05243007658652915</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1085623833602218</v>
+        <v>0.1085835259796385</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>41117</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29823</v>
+        <v>29557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54193</v>
+        <v>53974</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1795097945890593</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1302051752949011</v>
+        <v>0.1290400304170634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2366002660543635</v>
+        <v>0.2356444963516786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -835,19 +835,19 @@
         <v>38491</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27434</v>
+        <v>27475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53105</v>
+        <v>51872</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1639905967591578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1168839038710257</v>
+        <v>0.1170595611033359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2262567619876317</v>
+        <v>0.2210030692104558</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -856,19 +856,19 @@
         <v>79607</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62435</v>
+        <v>62856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98933</v>
+        <v>97623</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.171655448001402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1346266929668544</v>
+        <v>0.1355347681767731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2133264112489346</v>
+        <v>0.2105017089039114</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>49833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37710</v>
+        <v>37630</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62763</v>
+        <v>63148</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2175634118414028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1646353682375243</v>
+        <v>0.164287238520464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2740127915724653</v>
+        <v>0.2756961667595986</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -906,19 +906,19 @@
         <v>42821</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31604</v>
+        <v>30516</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56891</v>
+        <v>56337</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1824394206178092</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1346514967128781</v>
+        <v>0.1300156132465692</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2423862302627462</v>
+        <v>0.2400238231596391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -927,19 +927,19 @@
         <v>92654</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75230</v>
+        <v>75464</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>112083</v>
+        <v>112332</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1997869775414035</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1622172368250286</v>
+        <v>0.1627205137926759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.241681765629791</v>
+        <v>0.2422196188611441</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>29271</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20445</v>
+        <v>19583</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41228</v>
+        <v>40606</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1277947881081495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08925930502531342</v>
+        <v>0.08549481994676668</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1799949161061592</v>
+        <v>0.1772805160089749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -977,19 +977,19 @@
         <v>29138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20852</v>
+        <v>20071</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41485</v>
+        <v>41807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1241420292301915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08884045096519751</v>
+        <v>0.0855131485151267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1767489981599256</v>
+        <v>0.1781189587413637</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -998,19 +998,19 @@
         <v>58409</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44794</v>
+        <v>43968</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74372</v>
+        <v>73499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1259461078771812</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0965880599952019</v>
+        <v>0.09480598020510524</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1603670517124125</v>
+        <v>0.1584833249029415</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>89604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74660</v>
+        <v>74107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104770</v>
+        <v>106110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3911970259868097</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3259543205383136</v>
+        <v>0.3235396796606781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4574105479031356</v>
+        <v>0.463263334926622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>99</v>
@@ -1048,19 +1048,19 @@
         <v>107890</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92880</v>
+        <v>92731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>123399</v>
+        <v>125137</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4596693520639695</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3957182758763743</v>
+        <v>0.3950812705855399</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5257437973925377</v>
+        <v>0.5331468932289088</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>184</v>
@@ -1069,19 +1069,19 @@
         <v>197494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>176040</v>
+        <v>176862</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>220340</v>
+        <v>220460</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.425851225679843</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3795894284565696</v>
+        <v>0.3813630911799566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4751132766626984</v>
+        <v>0.4753719429939228</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>21519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13383</v>
+        <v>13489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33180</v>
+        <v>33117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05112879621043649</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03179803406730903</v>
+        <v>0.03205029581627315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07883488518333782</v>
+        <v>0.07868540192235887</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1194,19 +1194,19 @@
         <v>30825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20245</v>
+        <v>20969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42327</v>
+        <v>44007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06511689699240893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04276639684008827</v>
+        <v>0.04429570582837428</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08941399090150076</v>
+        <v>0.09296335442414985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1215,19 +1215,19 @@
         <v>52344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39953</v>
+        <v>39702</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69194</v>
+        <v>69307</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05853342943730705</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0446765286667217</v>
+        <v>0.04439619763363246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07737581817783422</v>
+        <v>0.07750209699266759</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>107314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90230</v>
+        <v>90245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125176</v>
+        <v>126157</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.254973567201953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2143827308809826</v>
+        <v>0.2144172788142194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2974119197064798</v>
+        <v>0.2997432193668317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -1265,19 +1265,19 @@
         <v>65381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51021</v>
+        <v>51489</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>81111</v>
+        <v>83151</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1381139296407043</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1077807441908948</v>
+        <v>0.1087680066641469</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1713436390908319</v>
+        <v>0.1756537005705004</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -1286,19 +1286,19 @@
         <v>172695</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>147981</v>
+        <v>149759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>196993</v>
+        <v>196922</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1931136500728702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1654777486089366</v>
+        <v>0.1674665342392585</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.220285190135156</v>
+        <v>0.22020606668609</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>149256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>130371</v>
+        <v>127205</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>170348</v>
+        <v>169463</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3546259109992811</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3097566344204497</v>
+        <v>0.3022345997918639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4047406245445507</v>
+        <v>0.402637578875556</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>131</v>
@@ -1336,19 +1336,19 @@
         <v>146641</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>127451</v>
+        <v>128641</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>169504</v>
+        <v>167350</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3097728914679653</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2692363657545741</v>
+        <v>0.2717484426190197</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3580709779675234</v>
+        <v>0.353521087145947</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>270</v>
@@ -1357,19 +1357,19 @@
         <v>295897</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>267885</v>
+        <v>266337</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>327539</v>
+        <v>325662</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3308828622520856</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2995591924304508</v>
+        <v>0.2978279674093383</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3662666005903033</v>
+        <v>0.3641671104507923</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>38687</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27664</v>
+        <v>26651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51849</v>
+        <v>51953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09191909207712914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06572778858383442</v>
+        <v>0.06332259579186733</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1231913554647201</v>
+        <v>0.1234369671878314</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1407,19 +1407,19 @@
         <v>78933</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64348</v>
+        <v>62682</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97077</v>
+        <v>97288</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1667431455907268</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1359336447995945</v>
+        <v>0.1324124859907687</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.205071377154749</v>
+        <v>0.205516863741102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -1428,19 +1428,19 @@
         <v>117620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97317</v>
+        <v>97800</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139474</v>
+        <v>139770</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1315273763933221</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1088241113820069</v>
+        <v>0.10936412335013</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.155965039027192</v>
+        <v>0.1562957362011593</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>104107</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85860</v>
+        <v>86208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>122548</v>
+        <v>126307</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2473526335112002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2039998686166644</v>
+        <v>0.2048271931476032</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2911694130967282</v>
+        <v>0.300099516768621</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>139</v>
@@ -1478,19 +1478,19 @@
         <v>151602</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130191</v>
+        <v>131771</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>173717</v>
+        <v>172412</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3202531363081947</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2750243613233283</v>
+        <v>0.2783609016790847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3669702574659011</v>
+        <v>0.364213906293111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1499,19 +1499,19 @@
         <v>255708</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>224440</v>
+        <v>227869</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>285580</v>
+        <v>285617</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.285942681844415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2509774355503357</v>
+        <v>0.2548122466821277</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3193467692767451</v>
+        <v>0.3193879321812228</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>27748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18984</v>
+        <v>19034</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38636</v>
+        <v>38181</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09872995813699671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06754447549505925</v>
+        <v>0.06772432248352746</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1374693800525034</v>
+        <v>0.1358499304836764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1624,19 +1624,19 @@
         <v>27736</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17853</v>
+        <v>17650</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40184</v>
+        <v>40482</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09060596509270041</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05832175176240358</v>
+        <v>0.0576581996102342</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1312691696783337</v>
+        <v>0.1322451425763516</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1645,19 +1645,19 @@
         <v>55484</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43210</v>
+        <v>41602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72277</v>
+        <v>73182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09449457557194897</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07359002379690059</v>
+        <v>0.07085222959534275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1230946023292306</v>
+        <v>0.1246351203383393</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>60738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47687</v>
+        <v>48175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76155</v>
+        <v>74767</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2161084545181725</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1696736499725543</v>
+        <v>0.1714077057093155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2709632177863796</v>
+        <v>0.2660231301303487</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -1695,19 +1695,19 @@
         <v>38674</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27233</v>
+        <v>28453</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52966</v>
+        <v>51222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1263363194567028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08896146475844686</v>
+        <v>0.09294959438714713</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.173025995158427</v>
+        <v>0.1673285134923087</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -1716,19 +1716,19 @@
         <v>99411</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>81601</v>
+        <v>81699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>117810</v>
+        <v>119102</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.169306428274021</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1389737863119483</v>
+        <v>0.1391409529433321</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2006398508319049</v>
+        <v>0.2028410319754688</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>58022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44975</v>
+        <v>45432</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74366</v>
+        <v>72238</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2064463912180386</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1600217695417098</v>
+        <v>0.1616491144442038</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2645967468666947</v>
+        <v>0.2570246812579581</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>47</v>
@@ -1766,19 +1766,19 @@
         <v>48100</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36404</v>
+        <v>36718</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63237</v>
+        <v>60929</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1571284171637861</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1189217845783858</v>
+        <v>0.1199469001940527</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2065772841855388</v>
+        <v>0.1990382474020918</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>104</v>
@@ -1787,19 +1787,19 @@
         <v>106122</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>88285</v>
+        <v>89945</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>125709</v>
+        <v>125227</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1807348370212377</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1503562129513237</v>
+        <v>0.1531846629103231</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2140932563372721</v>
+        <v>0.2132731369901882</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>27119</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17980</v>
+        <v>18140</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39189</v>
+        <v>39415</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09648994803935995</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06397537669279521</v>
+        <v>0.06454377204894864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1394370331490497</v>
+        <v>0.1402405853663433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -1837,19 +1837,19 @@
         <v>39507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29461</v>
+        <v>29044</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52581</v>
+        <v>53476</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1290588511507107</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09624012765425831</v>
+        <v>0.09488041125748992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1717669583168431</v>
+        <v>0.1746924030675287</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1858,19 +1858,19 @@
         <v>66626</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52238</v>
+        <v>52984</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83924</v>
+        <v>84433</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1134695002925946</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08896605655726168</v>
+        <v>0.09023627993586644</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1429300402761295</v>
+        <v>0.1437976041109688</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>107426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89556</v>
+        <v>91789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122025</v>
+        <v>124452</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3822252480874322</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3186457718968786</v>
+        <v>0.3265912249695944</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4341719957538679</v>
+        <v>0.442807090780281</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>139</v>
@@ -1908,19 +1908,19 @@
         <v>152100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>132347</v>
+        <v>133540</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>168627</v>
+        <v>170044</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4968704471361</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4323410227356552</v>
+        <v>0.4362383740674957</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5508600363538917</v>
+        <v>0.5554888076805291</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -1929,19 +1929,19 @@
         <v>259526</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>235097</v>
+        <v>237662</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284358</v>
+        <v>285467</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4419946588401977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4003901456849369</v>
+        <v>0.4047588511444553</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4842872163814361</v>
+        <v>0.4861745900769345</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>22945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15143</v>
+        <v>14714</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33940</v>
+        <v>32975</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08025827099582102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0529692321199264</v>
+        <v>0.05146604225421252</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1187178954533561</v>
+        <v>0.1153426848457726</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -2054,19 +2054,19 @@
         <v>25546</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17058</v>
+        <v>16778</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37404</v>
+        <v>37036</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07673894919157351</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05124123450058909</v>
+        <v>0.05039904898790688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1123594079517709</v>
+        <v>0.1112550301007465</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -2075,19 +2075,19 @@
         <v>48491</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35993</v>
+        <v>35923</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62559</v>
+        <v>63947</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07836494157254682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05816740845566805</v>
+        <v>0.0580547490555957</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1010994260429766</v>
+        <v>0.1033429332414217</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>58635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44718</v>
+        <v>45450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>73783</v>
+        <v>75148</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.205095460166243</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1564187281069668</v>
+        <v>0.1589768859513969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2580832361342318</v>
+        <v>0.2628560558069654</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -2125,19 +2125,19 @@
         <v>55189</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>41780</v>
+        <v>42394</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>70621</v>
+        <v>70129</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1657857984103306</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1255062132428201</v>
+        <v>0.1273499146827078</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2121440795771748</v>
+        <v>0.2106656230051988</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>106</v>
@@ -2146,19 +2146,19 @@
         <v>113824</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>95220</v>
+        <v>94852</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>136716</v>
+        <v>134996</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1839475960716326</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1538823384940582</v>
+        <v>0.1532874316143696</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2209439133532959</v>
+        <v>0.2181637231757736</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>53858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42149</v>
+        <v>41051</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68543</v>
+        <v>68124</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1883895360329659</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.147432473300606</v>
+        <v>0.1435914681945718</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2397526438345827</v>
+        <v>0.2382896261429898</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -2196,19 +2196,19 @@
         <v>57264</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44383</v>
+        <v>46260</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>73347</v>
+        <v>73395</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1720176748676003</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1333248739392882</v>
+        <v>0.1389619859083724</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2203308094879594</v>
+        <v>0.2204758520176442</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>106</v>
@@ -2217,19 +2217,19 @@
         <v>111122</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>94460</v>
+        <v>93254</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>133477</v>
+        <v>130126</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1795817803964294</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1526546208256397</v>
+        <v>0.1507063014491923</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2157096760923674</v>
+        <v>0.2102938762056277</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>42662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29571</v>
+        <v>30489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57298</v>
+        <v>56861</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1492264134338008</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1034362334990769</v>
+        <v>0.1066448485073359</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2004216965258138</v>
+        <v>0.1988935446414926</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2267,19 +2267,19 @@
         <v>46091</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34196</v>
+        <v>35109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59351</v>
+        <v>59086</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1384555820500379</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1027226944616237</v>
+        <v>0.1054669799431801</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1782880177715578</v>
+        <v>0.1774927873554277</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -2288,19 +2288,19 @@
         <v>88753</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71498</v>
+        <v>71452</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>105637</v>
+        <v>108432</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1434319072458781</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1155461238068445</v>
+        <v>0.1154717414218268</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.17071795604962</v>
+        <v>0.1752335433080389</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>107789</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89639</v>
+        <v>91220</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124236</v>
+        <v>125727</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3770303193711693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3135456931994737</v>
+        <v>0.3190732949033104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4345617828851999</v>
+        <v>0.4397770786317812</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>140</v>
@@ -2338,19 +2338,19 @@
         <v>148804</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>130591</v>
+        <v>130382</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>167315</v>
+        <v>167975</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4470019954804577</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.39229088141965</v>
+        <v>0.3916635588817787</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5026085607208395</v>
+        <v>0.5045886462085142</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>236</v>
@@ -2359,19 +2359,19 @@
         <v>256593</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>230762</v>
+        <v>231948</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>281540</v>
+        <v>280695</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.414673774713513</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3729281667687215</v>
+        <v>0.3748450277327038</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4549891302684942</v>
+        <v>0.4536241722891894</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>16217</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9585</v>
+        <v>9554</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25054</v>
+        <v>25307</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09506944413361573</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05619035376672146</v>
+        <v>0.05600902603319531</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1468767721630759</v>
+        <v>0.1483621278176118</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -2484,19 +2484,19 @@
         <v>14964</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8233</v>
+        <v>8362</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23940</v>
+        <v>23788</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07626400809937242</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04196085656696365</v>
+        <v>0.04261552392986746</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.12200957637912</v>
+        <v>0.1212347272708088</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>29</v>
@@ -2505,19 +2505,19 @@
         <v>31180</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21000</v>
+        <v>21133</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44031</v>
+        <v>44642</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08500957376785652</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0572534256676746</v>
+        <v>0.05761685431807548</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1200454328977893</v>
+        <v>0.1217093627484787</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>34406</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24262</v>
+        <v>23564</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46666</v>
+        <v>46401</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2017042532125498</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1422331551574414</v>
+        <v>0.1381464873421188</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2735791034423566</v>
+        <v>0.272024876992713</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -2555,19 +2555,19 @@
         <v>35995</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26197</v>
+        <v>26035</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47261</v>
+        <v>49428</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1834492355112585</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1335141988363407</v>
+        <v>0.1326870145923546</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2408686149644212</v>
+        <v>0.2519111002748254</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>67</v>
@@ -2576,19 +2576,19 @@
         <v>70401</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>54901</v>
+        <v>55859</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>87820</v>
+        <v>85204</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1919388262761453</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1496811457190852</v>
+        <v>0.1522927765328025</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2394304648450395</v>
+        <v>0.2322970646048484</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>32747</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23423</v>
+        <v>23472</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44051</v>
+        <v>44225</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1919798756132099</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1373145969661543</v>
+        <v>0.1376044316608994</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2582496521771046</v>
+        <v>0.2592661514425423</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -2626,19 +2626,19 @@
         <v>34127</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23841</v>
+        <v>24512</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>46295</v>
+        <v>46354</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.173929512045962</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1215049284831858</v>
+        <v>0.1249290291611909</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2359440807434665</v>
+        <v>0.2362437542626927</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>63</v>
@@ -2650,16 +2650,16 @@
         <v>52533</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>82706</v>
+        <v>84025</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1823239273432158</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1432245774184034</v>
+        <v>0.1432249222429392</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2254867149068796</v>
+        <v>0.2290840050512389</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>16436</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9639</v>
+        <v>9741</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26148</v>
+        <v>25117</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09635482639838149</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05650900085731674</v>
+        <v>0.05710897333269115</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1532906535037419</v>
+        <v>0.147247523423595</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>13</v>
@@ -2697,19 +2697,19 @@
         <v>13791</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7973</v>
+        <v>7808</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22558</v>
+        <v>22381</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07028516419578533</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04063241209531691</v>
+        <v>0.03979149979970373</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.11496561289212</v>
+        <v>0.1140663326421998</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -2718,19 +2718,19 @@
         <v>30227</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19781</v>
+        <v>21338</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>41784</v>
+        <v>42516</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08240899596085807</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05393089022994338</v>
+        <v>0.05817400665590456</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1139180289564205</v>
+        <v>0.1159134155510909</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>70771</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>57188</v>
+        <v>58488</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>83585</v>
+        <v>84450</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4148916006422431</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3352662352847086</v>
+        <v>0.3428870093188698</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4900180804277113</v>
+        <v>0.4950857650299993</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -2768,19 +2768,19 @@
         <v>97335</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>83448</v>
+        <v>81937</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>111573</v>
+        <v>110627</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4960720801476218</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4252991703287062</v>
+        <v>0.41759695182599</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5686387239707528</v>
+        <v>0.563814747339457</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>157</v>
@@ -2789,19 +2789,19 @@
         <v>168106</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>149710</v>
+        <v>149816</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>188663</v>
+        <v>188475</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4583186766519243</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4081636894283118</v>
+        <v>0.4084526976739934</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5143641144171545</v>
+        <v>0.5138533716943569</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>21064</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13514</v>
+        <v>13628</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>30915</v>
+        <v>31068</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08701042816894598</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05582044413287195</v>
+        <v>0.05629375859150607</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1277017557942418</v>
+        <v>0.1283337508317364</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>22</v>
@@ -2914,19 +2914,19 @@
         <v>22152</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13130</v>
+        <v>14592</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>31878</v>
+        <v>32178</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08506302799677255</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05041788682877861</v>
+        <v>0.0560332352681681</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1224116223013455</v>
+        <v>0.1235608051735465</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>44</v>
@@ -2935,19 +2935,19 @@
         <v>43216</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>32559</v>
+        <v>32699</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>57307</v>
+        <v>57344</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08600121008692134</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06479318341646732</v>
+        <v>0.06507090185937073</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.114041752789533</v>
+        <v>0.114116502472211</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>41508</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>30692</v>
+        <v>31696</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>55067</v>
+        <v>55811</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1714583864356449</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1267816780613661</v>
+        <v>0.1309266679441125</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2274645751413076</v>
+        <v>0.2305388883721675</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>41</v>
@@ -2985,19 +2985,19 @@
         <v>41001</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30561</v>
+        <v>30574</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>53775</v>
+        <v>54876</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1574437438200517</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1173550490917687</v>
+        <v>0.1174019729397873</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2064941036852011</v>
+        <v>0.2107230880192612</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>81</v>
@@ -3006,19 +3006,19 @@
         <v>82510</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>66234</v>
+        <v>67859</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>99198</v>
+        <v>100785</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1641954566367919</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1318072659190619</v>
+        <v>0.1350406345565603</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1974068006314825</v>
+        <v>0.2005641369905484</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>52612</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41101</v>
+        <v>38612</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>67336</v>
+        <v>66006</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2173239335465396</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1697772203754471</v>
+        <v>0.1594951098811623</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2781472847474328</v>
+        <v>0.2726504792806455</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>38</v>
@@ -3056,19 +3056,19 @@
         <v>40671</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>29220</v>
+        <v>29079</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>52688</v>
+        <v>52572</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1561769910267766</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1122024978808599</v>
+        <v>0.1116634586934466</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2023185933011283</v>
+        <v>0.2018734485539934</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>89</v>
@@ -3077,19 +3077,19 @@
         <v>93283</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>77556</v>
+        <v>75926</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>113468</v>
+        <v>112772</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1856352231657692</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1543386989449487</v>
+        <v>0.1510937404673845</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2258032656150056</v>
+        <v>0.2244175272437501</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>25114</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16520</v>
+        <v>16836</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38166</v>
+        <v>36294</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1037395057176898</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06824044260456698</v>
+        <v>0.06954369242349488</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1576534181345181</v>
+        <v>0.1499199182709886</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>31</v>
@@ -3127,19 +3127,19 @@
         <v>31431</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21705</v>
+        <v>21047</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>42703</v>
+        <v>41395</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1206953633196612</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08334687262620985</v>
+        <v>0.08082140335533093</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1639787531892405</v>
+        <v>0.1589565886048631</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -3148,19 +3148,19 @@
         <v>56546</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>43403</v>
+        <v>42778</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>72444</v>
+        <v>71680</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1125266868695976</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08637187610060222</v>
+        <v>0.085128207589799</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1441649573032664</v>
+        <v>0.1426435139926103</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>101791</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>87003</v>
+        <v>86546</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>119510</v>
+        <v>118212</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4204677461311798</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.359384226021481</v>
+        <v>0.3574978249872532</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4936597691945599</v>
+        <v>0.4882978565233759</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>119</v>
@@ -3198,19 +3198,19 @@
         <v>125163</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>108042</v>
+        <v>109395</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>140910</v>
+        <v>141167</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.480620873836738</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4148783096532781</v>
+        <v>0.420074344206312</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5410882759825553</v>
+        <v>0.5420752244825362</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>212</v>
@@ -3219,19 +3219,19 @@
         <v>226953</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>203856</v>
+        <v>205380</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>249218</v>
+        <v>250298</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4516414232409198</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4056770905114889</v>
+        <v>0.4087103891377672</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4959481000598966</v>
+        <v>0.4980979123710302</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>67424</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>52307</v>
+        <v>53792</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>84716</v>
+        <v>86112</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1180323322822856</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09156813880502121</v>
+        <v>0.09416857836173535</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1483034636028086</v>
+        <v>0.1507464860996862</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>53</v>
@@ -3344,19 +3344,19 @@
         <v>61753</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>48272</v>
+        <v>45915</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>82305</v>
+        <v>78393</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09914113280617069</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07749842158183191</v>
+        <v>0.07371382280203456</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1321370337964309</v>
+        <v>0.1258568129474714</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>117</v>
@@ -3365,19 +3365,19 @@
         <v>129177</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>107785</v>
+        <v>107802</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>155826</v>
+        <v>153064</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1081782372572378</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09026390883701405</v>
+        <v>0.09027795769631621</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1304958167787758</v>
+        <v>0.1281830069195616</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>133849</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>114137</v>
+        <v>113807</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>155474</v>
+        <v>154970</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2343156640873996</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1998074229196757</v>
+        <v>0.1992297616736277</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2721721083759163</v>
+        <v>0.2712896524489087</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>97</v>
@@ -3415,19 +3415,19 @@
         <v>105941</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>88417</v>
+        <v>87984</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>125721</v>
+        <v>127556</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.170083558859765</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1419499204570341</v>
+        <v>0.1412542121747817</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2018391676504134</v>
+        <v>0.2047849998407076</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>225</v>
@@ -3436,19 +3436,19 @@
         <v>239790</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>210082</v>
+        <v>211056</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>267412</v>
+        <v>274038</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2008106836666352</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1759322648149722</v>
+        <v>0.1767474728532613</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2239427554534314</v>
+        <v>0.229492013012919</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>114385</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>94328</v>
+        <v>93106</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>134294</v>
+        <v>136441</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.200241698485356</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1651308059626965</v>
+        <v>0.1629909802079015</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2350942610448604</v>
+        <v>0.2388525086348542</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>112</v>
@@ -3486,19 +3486,19 @@
         <v>123333</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>102276</v>
+        <v>102543</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>145341</v>
+        <v>145157</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1980055684832275</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1641988708062463</v>
+        <v>0.1646284328406274</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2333393409745317</v>
+        <v>0.23304268658456</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>212</v>
@@ -3507,19 +3507,19 @@
         <v>237718</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>207576</v>
+        <v>209802</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>267600</v>
+        <v>269055</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1990752803573173</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1738334939598297</v>
+        <v>0.1756977983019464</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2241000981409579</v>
+        <v>0.225318798032352</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>65511</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>50307</v>
+        <v>51865</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>82915</v>
+        <v>83986</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1146838981453638</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08806685532826088</v>
+        <v>0.09079395880592667</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1451507482250676</v>
+        <v>0.1470249562701328</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>71</v>
@@ -3557,19 +3557,19 @@
         <v>75500</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>59370</v>
+        <v>60233</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>92656</v>
+        <v>92302</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1212118935948225</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0953165600420989</v>
+        <v>0.09670152589065305</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1487554111636799</v>
+        <v>0.148187422351268</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>130</v>
@@ -3578,19 +3578,19 @@
         <v>141011</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>119081</v>
+        <v>118752</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>167611</v>
+        <v>164209</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1180890544756105</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09972391426725492</v>
+        <v>0.09944841671664459</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1403651285891049</v>
+        <v>0.1375161669236434</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>190065</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>166361</v>
+        <v>166737</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>213748</v>
+        <v>212222</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.332726406999595</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2912306351690929</v>
+        <v>0.2918883165904497</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3741855737432848</v>
+        <v>0.3715149303452212</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>238</v>
@@ -3628,19 +3628,19 @@
         <v>256350</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>233472</v>
+        <v>232520</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>281484</v>
+        <v>284146</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4115578462560143</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3748297257959028</v>
+        <v>0.3733007027827865</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4519107206365792</v>
+        <v>0.4561845798896138</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>419</v>
@@ -3649,19 +3649,19 @@
         <v>446414</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>411372</v>
+        <v>415218</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>481032</v>
+        <v>482409</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3738467442431991</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3445010728762767</v>
+        <v>0.3477219067206615</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4028373205806408</v>
+        <v>0.4039904058588031</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>51248</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>37609</v>
+        <v>38047</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>66871</v>
+        <v>66953</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08819087336550446</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06471967851836101</v>
+        <v>0.06547339419730633</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1150771525096581</v>
+        <v>0.1152176442054012</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>46</v>
@@ -3774,19 +3774,19 @@
         <v>48237</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>35608</v>
+        <v>36364</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>63373</v>
+        <v>62836</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07347696692422558</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05424017640132374</v>
+        <v>0.05539125909718873</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09653295229442284</v>
+        <v>0.09571414642356245</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>91</v>
@@ -3795,19 +3795,19 @@
         <v>99485</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>80949</v>
+        <v>79430</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>120977</v>
+        <v>119759</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08038573916724787</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.065408075797139</v>
+        <v>0.06418135257622297</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0977516652854738</v>
+        <v>0.09676750952149221</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>111825</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>91573</v>
+        <v>92734</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>132088</v>
+        <v>130881</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1924375401068502</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1575852989288679</v>
+        <v>0.1595840522589108</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2273075704517588</v>
+        <v>0.2252297224231583</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>113</v>
@@ -3845,19 +3845,19 @@
         <v>122407</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>101912</v>
+        <v>103596</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>144297</v>
+        <v>143382</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.186456078500497</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1552362715194761</v>
+        <v>0.1578024834448144</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.219800032262518</v>
+        <v>0.2184065817733471</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>220</v>
@@ -3866,19 +3866,19 @@
         <v>234233</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>206903</v>
+        <v>206152</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>260192</v>
+        <v>265586</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1892646158582407</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1671820406865938</v>
+        <v>0.1665750074058763</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2102400669373228</v>
+        <v>0.2145987398756391</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>171610</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>149949</v>
+        <v>148716</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>196173</v>
+        <v>196130</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2953199454973012</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.258044092131975</v>
+        <v>0.2559216662263417</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3375898276224943</v>
+        <v>0.3375144608957926</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>151</v>
@@ -3916,19 +3916,19 @@
         <v>164524</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>141844</v>
+        <v>144729</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>187952</v>
+        <v>190979</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2506098292780328</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2160628460406871</v>
+        <v>0.2204583180056579</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.286297399711741</v>
+        <v>0.2909074636475632</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>307</v>
@@ -3937,19 +3937,19 @@
         <v>336134</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>305815</v>
+        <v>303222</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>373004</v>
+        <v>371001</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2716030312635644</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2471045411017024</v>
+        <v>0.2450096936672675</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3013943620420606</v>
+        <v>0.2997762408025291</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>93026</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>74767</v>
+        <v>74992</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>114371</v>
+        <v>113025</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1600858483729869</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1286647949921117</v>
+        <v>0.1290517155691936</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1968173977909637</v>
+        <v>0.1945022737388183</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>97</v>
@@ -3987,19 +3987,19 @@
         <v>107530</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>89104</v>
+        <v>90215</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>126763</v>
+        <v>127385</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1637941232734476</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.135727391836544</v>
+        <v>0.1374201255033084</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1930906065712951</v>
+        <v>0.1940389617323718</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>177</v>
@@ -4008,19 +4008,19 @@
         <v>200556</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>176762</v>
+        <v>175462</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>231449</v>
+        <v>230885</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.162052938714198</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1428273360332998</v>
+        <v>0.1417771739652231</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1870152483023575</v>
+        <v>0.1865598926185148</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>153391</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>132235</v>
+        <v>132369</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>177948</v>
+        <v>177981</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2639657926573571</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2275605247031056</v>
+        <v>0.2277912465346284</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3062255510212105</v>
+        <v>0.3062821727048856</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>195</v>
@@ -4058,19 +4058,19 @@
         <v>213795</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>189722</v>
+        <v>190028</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>241344</v>
+        <v>239583</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.325663002023797</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2889939185774483</v>
+        <v>0.2894597848831232</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.367626547309701</v>
+        <v>0.3649437449031182</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>335</v>
@@ -4079,19 +4079,19 @@
         <v>367186</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>337656</v>
+        <v>337550</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>397925</v>
+        <v>398265</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2966936749967491</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2728330010293065</v>
+        <v>0.2727473044516032</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.321531750988839</v>
+        <v>0.321805855860835</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>247390</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>219464</v>
+        <v>217907</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>280348</v>
+        <v>280210</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.08892943126234061</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07889052858193434</v>
+        <v>0.07833114274861423</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1007766369698185</v>
+        <v>0.1007269494480595</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>227</v>
@@ -4204,19 +4204,19 @@
         <v>247586</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>218324</v>
+        <v>217080</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>280876</v>
+        <v>278748</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.0803041084354595</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.07081307902883181</v>
+        <v>0.07040968492353468</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.0911017644523659</v>
+        <v>0.09041165055093808</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>461</v>
@@ -4225,19 +4225,19 @@
         <v>494976</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>456080</v>
+        <v>454635</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>544681</v>
+        <v>540167</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.08439526965037066</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07776329240594428</v>
+        <v>0.07751697717154549</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09287016237868662</v>
+        <v>0.09210052598618364</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>589392</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>547112</v>
+        <v>546549</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>631029</v>
+        <v>634255</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2118686339887473</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1966702935971737</v>
+        <v>0.1964678557601689</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.226835886877969</v>
+        <v>0.2279956235602088</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>466</v>
@@ -4275,19 +4275,19 @@
         <v>503078</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>459327</v>
+        <v>465084</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>549544</v>
+        <v>547594</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1631726518984769</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.148982106820566</v>
+        <v>0.1508492245265745</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1782438195106046</v>
+        <v>0.1776113310971656</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1034</v>
@@ -4296,19 +4296,19 @@
         <v>1092470</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1032728</v>
+        <v>1031136</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1155187</v>
+        <v>1150352</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1862701193496472</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1760839390715896</v>
+        <v>0.1758124019125209</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1969636050446631</v>
+        <v>0.1961393356163426</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>682324</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>633914</v>
+        <v>639663</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>729423</v>
+        <v>730579</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2452749313236692</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2278729164416589</v>
+        <v>0.229939571872717</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2622055966438511</v>
+        <v>0.2626211287725177</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>603</v>
@@ -4346,19 +4346,19 @@
         <v>657479</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>609991</v>
+        <v>606547</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>704714</v>
+        <v>706676</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2132525288741497</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1978498124591617</v>
+        <v>0.1967326828541574</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2285731784943547</v>
+        <v>0.2292093944598915</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1238</v>
@@ -4367,19 +4367,19 @@
         <v>1339803</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1270980</v>
+        <v>1280283</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1410917</v>
+        <v>1413466</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2284413877191146</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2167068322131732</v>
+        <v>0.2182929985814337</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.240566570451914</v>
+        <v>0.2410011555189589</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>337827</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>302975</v>
+        <v>299656</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>372351</v>
+        <v>375557</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1214385692082953</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1089104987447169</v>
+        <v>0.1077174404781914</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1338491561299077</v>
+        <v>0.1350014816953614</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>395</v>
@@ -4417,19 +4417,19 @@
         <v>421920</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>382219</v>
+        <v>384136</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>461632</v>
+        <v>457700</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1368493213208132</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1239720818547623</v>
+        <v>0.1245939960636163</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1497296468618191</v>
+        <v>0.1484543073202183</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>699</v>
@@ -4438,19 +4438,19 @@
         <v>759747</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>705638</v>
+        <v>709404</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>814808</v>
+        <v>817926</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1295396967884012</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.120313837999407</v>
+        <v>0.1209559477080883</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1389277037678169</v>
+        <v>0.1394593578318797</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>924941</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>872472</v>
+        <v>871645</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>979686</v>
+        <v>971553</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3324884342169475</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3136274100586114</v>
+        <v>0.3133300191480812</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3521675230618208</v>
+        <v>0.3492441991530669</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1162</v>
@@ -4488,19 +4488,19 @@
         <v>1253039</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1196756</v>
+        <v>1193408</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>1309770</v>
+        <v>1307154</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4064213894711006</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3881661033284557</v>
+        <v>0.3870803983542003</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4248221360344191</v>
+        <v>0.4239736468066004</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>2012</v>
@@ -4509,19 +4509,19 @@
         <v>2177980</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2097698</v>
+        <v>2099366</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2249223</v>
+        <v>2251714</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3713535264924663</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3576652008527798</v>
+        <v>0.3579496556631147</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.383500764938666</v>
+        <v>0.3839254711540462</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>20307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12324</v>
+        <v>11900</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31276</v>
+        <v>32117</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0960206318689405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05827366740163259</v>
+        <v>0.05626955170205186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1478885626729018</v>
+        <v>0.1518645321532198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4878,19 +4878,19 @@
         <v>22973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14989</v>
+        <v>14234</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34487</v>
+        <v>33674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09566083515161675</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06241582609287737</v>
+        <v>0.05927015011039187</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.143605697591981</v>
+        <v>0.140219941043941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -4899,19 +4899,19 @@
         <v>43280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31843</v>
+        <v>31151</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57679</v>
+        <v>57868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09582931279493084</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07050508153929783</v>
+        <v>0.0689743849186078</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1277104739503979</v>
+        <v>0.1281302134294644</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>41468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30204</v>
+        <v>31083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54696</v>
+        <v>55148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1960837355364547</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.142821196702101</v>
+        <v>0.1469779627979381</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2586303787216011</v>
+        <v>0.2607697823701198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -4949,19 +4949,19 @@
         <v>54723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42397</v>
+        <v>41925</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68984</v>
+        <v>68924</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.227864871714895</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1765396360490805</v>
+        <v>0.1745734177494877</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2872508762805874</v>
+        <v>0.2870009580306456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -4970,19 +4970,19 @@
         <v>96191</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>78787</v>
+        <v>78483</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115957</v>
+        <v>115529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2129831046854024</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1744474506478513</v>
+        <v>0.1737754904770221</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2567473475759147</v>
+        <v>0.2558003319131985</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>53226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41246</v>
+        <v>40946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68726</v>
+        <v>66185</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.25167966615882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1950310180627989</v>
+        <v>0.1936162470871662</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3249755629880573</v>
+        <v>0.3129599430101793</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>40</v>
@@ -5020,19 +5020,19 @@
         <v>40300</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29984</v>
+        <v>30151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52323</v>
+        <v>53004</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1678108620267225</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1248527260005379</v>
+        <v>0.1255476590824559</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2178746800294312</v>
+        <v>0.2207094567210056</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>90</v>
@@ -5041,19 +5041,19 @@
         <v>93526</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76462</v>
+        <v>77260</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111527</v>
+        <v>112279</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2070830893356606</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1692988914129462</v>
+        <v>0.17106730399117</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2469399471040275</v>
+        <v>0.2486051583640505</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>31426</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22057</v>
+        <v>21760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44190</v>
+        <v>43537</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1485977386368413</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1042989340012256</v>
+        <v>0.1028911741633454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2089562023146675</v>
+        <v>0.2058656633703493</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -5091,19 +5091,19 @@
         <v>40986</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30156</v>
+        <v>29760</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53790</v>
+        <v>54091</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.170666254279181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1255703288496136</v>
+        <v>0.1239199482919031</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2239794706611341</v>
+        <v>0.2252343722658024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -5112,19 +5112,19 @@
         <v>72412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57816</v>
+        <v>56889</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90938</v>
+        <v>89586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1603324982223788</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.128014216407023</v>
+        <v>0.1259607077884856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2013530295559797</v>
+        <v>0.1983573271253319</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>65056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51155</v>
+        <v>50863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80389</v>
+        <v>79317</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3076182277989435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2418883585339726</v>
+        <v>0.2405053174553519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3801233082169013</v>
+        <v>0.3750541010241558</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -5162,19 +5162,19 @@
         <v>81171</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>66525</v>
+        <v>67612</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96233</v>
+        <v>97067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3379971768275848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2770102820748094</v>
+        <v>0.2815350118627532</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4007130860556927</v>
+        <v>0.4041848841149188</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>137</v>
@@ -5183,19 +5183,19 @@
         <v>146227</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>126948</v>
+        <v>126475</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167233</v>
+        <v>168147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3237719949616275</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2810833041846368</v>
+        <v>0.2800377128147789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3702819721328589</v>
+        <v>0.3723050339886955</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>40816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30422</v>
+        <v>28808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54587</v>
+        <v>53442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09706947529407302</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07234901612767038</v>
+        <v>0.06851086019671852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1298183642136786</v>
+        <v>0.1270958655159316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -5308,19 +5308,19 @@
         <v>34902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24562</v>
+        <v>25018</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47822</v>
+        <v>47937</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07242673676422173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05096826982654617</v>
+        <v>0.05191590903410143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09923711820671303</v>
+        <v>0.09947464711579194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -5329,19 +5329,19 @@
         <v>75719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58787</v>
+        <v>60166</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92964</v>
+        <v>94515</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08390956356980156</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06514625591476705</v>
+        <v>0.06667406874663964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1030198487014785</v>
+        <v>0.1047390838482174</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>150257</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131176</v>
+        <v>131762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170777</v>
+        <v>172352</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3573422024322624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3119617983792431</v>
+        <v>0.3133568080911776</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4061425025561927</v>
+        <v>0.4098879541263513</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -5379,19 +5379,19 @@
         <v>159701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>139238</v>
+        <v>138748</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182596</v>
+        <v>182017</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3314001067123879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2889350504483794</v>
+        <v>0.2879197051687055</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3789096183680264</v>
+        <v>0.3777087639674902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>295</v>
@@ -5400,19 +5400,19 @@
         <v>309959</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>282679</v>
+        <v>280877</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>339685</v>
+        <v>338995</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3434883976206504</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3132573464635712</v>
+        <v>0.311260518850292</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3764306862363418</v>
+        <v>0.3756658061475524</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>129300</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>110840</v>
+        <v>111044</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149047</v>
+        <v>149720</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3075017985300275</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2636007539635657</v>
+        <v>0.2640854542010357</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3544643148724863</v>
+        <v>0.3560632128930539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>126</v>
@@ -5450,19 +5450,19 @@
         <v>139216</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>119843</v>
+        <v>116722</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161822</v>
+        <v>160825</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2888893775372382</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2486896938186987</v>
+        <v>0.2422121327523283</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3358012118762925</v>
+        <v>0.3337322080149654</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>246</v>
@@ -5471,19 +5471,19 @@
         <v>268516</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>240001</v>
+        <v>241731</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>296526</v>
+        <v>297453</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2975622450610259</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2659626063627434</v>
+        <v>0.2678799989652063</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3286021741954971</v>
+        <v>0.3296303647212885</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>40413</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29123</v>
+        <v>28554</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55451</v>
+        <v>52458</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09610991144586499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06925952846467497</v>
+        <v>0.06790823438050575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1318729977630133</v>
+        <v>0.1247560246972575</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -5521,19 +5521,19 @@
         <v>60176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45688</v>
+        <v>46109</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75125</v>
+        <v>77774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1248734110287274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09480924975725033</v>
+        <v>0.09568131648741124</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1558938709223239</v>
+        <v>0.1613907549537004</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -5542,19 +5542,19 @@
         <v>100589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81724</v>
+        <v>81285</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122227</v>
+        <v>121832</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1114704248455043</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09056431892946275</v>
+        <v>0.0900775980492526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.135448672325446</v>
+        <v>0.1350109632395864</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>59699</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47438</v>
+        <v>46385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75401</v>
+        <v>75871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1419766122977721</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1128180765173635</v>
+        <v>0.1103116486665905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1793182620936428</v>
+        <v>0.1804355552047658</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -5592,19 +5592,19 @@
         <v>87903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70127</v>
+        <v>71329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105400</v>
+        <v>104261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1824103679574248</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1455216728515557</v>
+        <v>0.1480156807135555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2187176358920257</v>
+        <v>0.2163534745594721</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -5613,19 +5613,19 @@
         <v>147603</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>125004</v>
+        <v>125854</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168293</v>
+        <v>172755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1635693689030179</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1385267382986242</v>
+        <v>0.1394686827229859</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1864980403794068</v>
+        <v>0.1914425017307535</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>46020</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34340</v>
+        <v>34327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59187</v>
+        <v>58527</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1662865328463893</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1240818140317973</v>
+        <v>0.1240344505173554</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2138657869083949</v>
+        <v>0.2114810538785105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -5738,19 +5738,19 @@
         <v>42203</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31230</v>
+        <v>30536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56053</v>
+        <v>55461</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1399884986523504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1035900171595017</v>
+        <v>0.101289297932966</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1859276308181766</v>
+        <v>0.1839662576931442</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -5759,19 +5759,19 @@
         <v>88223</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72975</v>
+        <v>72581</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106802</v>
+        <v>109008</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1525752278764195</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1262054189015352</v>
+        <v>0.1255233610140846</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1847067208148203</v>
+        <v>0.1885212742640375</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>89995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75366</v>
+        <v>74204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105126</v>
+        <v>106230</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3251861014755312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2723241980752522</v>
+        <v>0.2681262869538262</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3798587062092766</v>
+        <v>0.3838470906900324</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -5809,19 +5809,19 @@
         <v>78657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63393</v>
+        <v>64130</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96351</v>
+        <v>93763</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2609072400916826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2102753190958324</v>
+        <v>0.2127212859414375</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3195963074203385</v>
+        <v>0.31101163247045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>172</v>
@@ -5830,19 +5830,19 @@
         <v>168653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148104</v>
+        <v>147369</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190153</v>
+        <v>190823</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2916723009741939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2561344057057701</v>
+        <v>0.2548647263629357</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3288566371090199</v>
+        <v>0.3300144239320346</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>91419</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77522</v>
+        <v>77147</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>106495</v>
+        <v>107074</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3303294407881497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2801172474460863</v>
+        <v>0.2787621076914443</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3848059823105364</v>
+        <v>0.3868965897341775</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>95</v>
@@ -5880,19 +5880,19 @@
         <v>97490</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>81406</v>
+        <v>82414</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>113422</v>
+        <v>115920</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3233749477214991</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2700238037895897</v>
+        <v>0.2733696553194689</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3762219501681842</v>
+        <v>0.3845075550250635</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>191</v>
@@ -5901,19 +5901,19 @@
         <v>188908</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>166917</v>
+        <v>168383</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>211750</v>
+        <v>213954</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3267034976988369</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2886700799471246</v>
+        <v>0.2912062059232224</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3662060658944918</v>
+        <v>0.3700178208937493</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>19708</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12925</v>
+        <v>12651</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30663</v>
+        <v>28088</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07121394038350864</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04670456376914357</v>
+        <v>0.04571103638073148</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1107964663859372</v>
+        <v>0.1014934255045335</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -5951,19 +5951,19 @@
         <v>35198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25757</v>
+        <v>25297</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48538</v>
+        <v>47493</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1167537353767865</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08543596947923844</v>
+        <v>0.08390917866774932</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.161000873162353</v>
+        <v>0.1575360902215022</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -5972,19 +5972,19 @@
         <v>54907</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42413</v>
+        <v>42401</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71519</v>
+        <v>69439</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0949575408676953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07335033095350231</v>
+        <v>0.07332996613738471</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1236868060443704</v>
+        <v>0.1200899151320935</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>29608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20966</v>
+        <v>19676</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40803</v>
+        <v>39006</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1069839845064212</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07575755771880385</v>
+        <v>0.07109568558074242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1474363394399894</v>
+        <v>0.1409426940055309</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -6022,19 +6022,19 @@
         <v>47927</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36061</v>
+        <v>36695</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60706</v>
+        <v>61603</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1589755781576814</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.119614146720272</v>
+        <v>0.1217170852567276</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2013635220598907</v>
+        <v>0.2043385401678732</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>79</v>
@@ -6043,19 +6043,19 @@
         <v>77535</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63075</v>
+        <v>62677</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93871</v>
+        <v>94592</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1340914325828545</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1090833311652065</v>
+        <v>0.1083953038628429</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1623423580645736</v>
+        <v>0.1635896147774472</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>48700</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35615</v>
+        <v>36041</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62274</v>
+        <v>63072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1446846536917908</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1058089221393186</v>
+        <v>0.10707364929168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.185010370419223</v>
+        <v>0.1873816672688591</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -6168,19 +6168,19 @@
         <v>50863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38957</v>
+        <v>37496</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67648</v>
+        <v>64198</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.14349473394422</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1099068729548628</v>
+        <v>0.105783796370098</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1908484512120107</v>
+        <v>0.1811145703691106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -6189,19 +6189,19 @@
         <v>99563</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82847</v>
+        <v>81354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>120513</v>
+        <v>117216</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1440743160667278</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1198854419079241</v>
+        <v>0.1177245346911321</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1743899727630209</v>
+        <v>0.1696186341380704</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>59932</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46988</v>
+        <v>46416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75701</v>
+        <v>73963</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1780537643335469</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1395983084543259</v>
+        <v>0.1378976128339978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2249018807022013</v>
+        <v>0.219736796052288</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>59</v>
@@ -6239,19 +6239,19 @@
         <v>63166</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>49113</v>
+        <v>48363</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>78763</v>
+        <v>78144</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1782045571413806</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.138557172003729</v>
+        <v>0.136442436370922</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2222061164025961</v>
+        <v>0.2204604352277272</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>117</v>
@@ -6260,19 +6260,19 @@
         <v>123098</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>104031</v>
+        <v>103746</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>145072</v>
+        <v>145750</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1781311094859387</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1505389115515467</v>
+        <v>0.1501267755182221</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2099277908717322</v>
+        <v>0.210909541546895</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>81870</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67343</v>
+        <v>67719</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>98930</v>
+        <v>99718</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2432295239564983</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2000701592556075</v>
+        <v>0.2011872173555885</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2939129525217778</v>
+        <v>0.296253547337453</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -6310,19 +6310,19 @@
         <v>58334</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44599</v>
+        <v>43966</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74337</v>
+        <v>74153</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1645714486190004</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1258232367046235</v>
+        <v>0.1240369510193903</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2097198722128534</v>
+        <v>0.2092009356576206</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>131</v>
@@ -6331,19 +6331,19 @@
         <v>140204</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>120258</v>
+        <v>118291</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>160858</v>
+        <v>163258</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2028839603237221</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1740201583250844</v>
+        <v>0.1711742544329727</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2327722901681897</v>
+        <v>0.2362444414245611</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>39280</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28851</v>
+        <v>28844</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53601</v>
+        <v>53907</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.116697632710447</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08571515541197734</v>
+        <v>0.08569402177332293</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1592430684155712</v>
+        <v>0.1601529091440851</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -6381,19 +6381,19 @@
         <v>46228</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34328</v>
+        <v>34292</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60797</v>
+        <v>61061</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1304198050989186</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0968454259920736</v>
+        <v>0.09674599352331112</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1715210429305092</v>
+        <v>0.172265795024022</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>78</v>
@@ -6402,19 +6402,19 @@
         <v>85508</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69359</v>
+        <v>69527</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104684</v>
+        <v>105183</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1237360553632205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1003662458252835</v>
+        <v>0.1006094948992967</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1514839969743161</v>
+        <v>0.1522058597323546</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>106814</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91554</v>
+        <v>90718</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>126047</v>
+        <v>125996</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.317334425307717</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.272000294696521</v>
+        <v>0.2695152622264923</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3744750671752827</v>
+        <v>0.374321981054631</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>123</v>
@@ -6452,19 +6452,19 @@
         <v>135867</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>116944</v>
+        <v>117374</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>156133</v>
+        <v>155764</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3833094551964804</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3299242249650562</v>
+        <v>0.3311354255492742</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4404848542657582</v>
+        <v>0.4394424119508173</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>229</v>
@@ -6473,19 +6473,19 @@
         <v>242681</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>214538</v>
+        <v>218927</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>267622</v>
+        <v>268895</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3511745587603909</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.310449523460271</v>
+        <v>0.3168009950926804</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3872664031884985</v>
+        <v>0.3891076553309733</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>29807</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20777</v>
+        <v>21212</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41033</v>
+        <v>39232</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1861477031119183</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1297563090807412</v>
+        <v>0.1324727324694444</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2562557198126923</v>
+        <v>0.245009589817346</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -6598,19 +6598,19 @@
         <v>21786</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14427</v>
+        <v>14133</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31988</v>
+        <v>31696</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1119943132685919</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0741616952036705</v>
+        <v>0.07265091072417766</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1644406964225132</v>
+        <v>0.162935977387645</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -6619,19 +6619,19 @@
         <v>51593</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39833</v>
+        <v>39635</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>66766</v>
+        <v>66728</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1454742070285486</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1123148644482744</v>
+        <v>0.111756120416366</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1882577409875218</v>
+        <v>0.1881506403069196</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>36560</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26578</v>
+        <v>26710</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48483</v>
+        <v>47674</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2283199547340373</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.165985678724976</v>
+        <v>0.1668086527724408</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3027869975028362</v>
+        <v>0.2977304063900503</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -6669,19 +6669,19 @@
         <v>53587</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>40712</v>
+        <v>42622</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>65931</v>
+        <v>67553</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2754719251499269</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2092836071523398</v>
+        <v>0.2191058436724519</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3389271539743338</v>
+        <v>0.3472682102755615</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>91</v>
@@ -6690,19 +6690,19 @@
         <v>90147</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>74596</v>
+        <v>74380</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>107029</v>
+        <v>107011</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2541830405361283</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2103344983447612</v>
+        <v>0.2097275599400449</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3017862524160723</v>
+        <v>0.3017346363756547</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>33642</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24034</v>
+        <v>24452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43929</v>
+        <v>44895</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2100986208506322</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1500955353031813</v>
+        <v>0.152707405374926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2743444357410638</v>
+        <v>0.2803763295639093</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>45</v>
@@ -6740,19 +6740,19 @@
         <v>42325</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32757</v>
+        <v>30821</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54670</v>
+        <v>52886</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2175776191283434</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1683947462804916</v>
+        <v>0.1584405691746304</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2810389485879446</v>
+        <v>0.2718664317121638</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>78</v>
@@ -6761,19 +6761,19 @@
         <v>75967</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61837</v>
+        <v>63567</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>91308</v>
+        <v>91775</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2142008878919466</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1743598236639423</v>
+        <v>0.1792383404111692</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2574584522923334</v>
+        <v>0.2587744383494441</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>27728</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19275</v>
+        <v>19458</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>37812</v>
+        <v>38997</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1731661269399489</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1203781536626463</v>
+        <v>0.1215174326711438</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2361427689091859</v>
+        <v>0.2435424638139756</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>36</v>
@@ -6811,19 +6811,19 @@
         <v>36237</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>26246</v>
+        <v>27120</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47405</v>
+        <v>49471</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1862830838705203</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1349239717233767</v>
+        <v>0.1394165858757307</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2436908859425792</v>
+        <v>0.2543118893388462</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -6832,19 +6832,19 @@
         <v>63965</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>50488</v>
+        <v>50538</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>78178</v>
+        <v>78981</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1803608418069097</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1423606549008521</v>
+        <v>0.1424988646951765</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2204371618981373</v>
+        <v>0.222698649663971</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>32388</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23459</v>
+        <v>22797</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43718</v>
+        <v>43380</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2022675943634634</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1465055912294777</v>
+        <v>0.1423696301296192</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.273027168643906</v>
+        <v>0.2709178806375713</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -6882,19 +6882,19 @@
         <v>40593</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>30035</v>
+        <v>29970</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>53080</v>
+        <v>52848</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2086730585826176</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1543984848127738</v>
+        <v>0.1540674660906939</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2728640371245732</v>
+        <v>0.2716729224849328</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>72</v>
@@ -6903,19 +6903,19 @@
         <v>72981</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>58904</v>
+        <v>57986</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>88367</v>
+        <v>89317</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2057810227364669</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1660901611218134</v>
+        <v>0.1635020130522983</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.249166490761949</v>
+        <v>0.2518433839445614</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>35662</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>25792</v>
+        <v>25388</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>48614</v>
+        <v>48014</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1597788585039445</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.115556492301004</v>
+        <v>0.11374422435582</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2178054526015177</v>
+        <v>0.2151196080803582</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -7028,19 +7028,19 @@
         <v>18774</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11741</v>
+        <v>12126</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>29097</v>
+        <v>30723</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07594671928536136</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04749671902323321</v>
+        <v>0.04905257289997936</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1177050880935694</v>
+        <v>0.1242837761916545</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>52</v>
@@ -7049,19 +7049,19 @@
         <v>54437</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>41058</v>
+        <v>42342</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>68959</v>
+        <v>68996</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1157239861712575</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08728289316668235</v>
+        <v>0.0900130515535944</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1465973712313212</v>
+        <v>0.1466741769117564</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>47761</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>36880</v>
+        <v>36732</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>60220</v>
+        <v>61179</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2139844654837585</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1652330033503015</v>
+        <v>0.1645707096053293</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2698045328320868</v>
+        <v>0.274100577760142</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>54</v>
@@ -7099,19 +7099,19 @@
         <v>57408</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>43694</v>
+        <v>44552</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>70691</v>
+        <v>72245</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2322305580948031</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1767525468220048</v>
+        <v>0.1802230767043748</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2859655656166404</v>
+        <v>0.2922517121205073</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>102</v>
@@ -7120,19 +7120,19 @@
         <v>105169</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>87251</v>
+        <v>87589</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>126113</v>
+        <v>123869</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2235730229038914</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1854827228864515</v>
+        <v>0.1862008982592047</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2680967352913924</v>
+        <v>0.2633266530167829</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>53529</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42922</v>
+        <v>41822</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>66645</v>
+        <v>67389</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2398283575812077</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1923017670629908</v>
+        <v>0.187376714432767</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2985886176099068</v>
+        <v>0.3019221434386644</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>53</v>
@@ -7170,19 +7170,19 @@
         <v>53232</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>41996</v>
+        <v>40801</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>67403</v>
+        <v>67730</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2153370146390731</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1698871472327248</v>
+        <v>0.1650499558990784</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.272662905349243</v>
+        <v>0.2739848779074579</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>107</v>
@@ -7191,19 +7191,19 @@
         <v>106761</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>90103</v>
+        <v>89047</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>126123</v>
+        <v>124222</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2269578404188278</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1915447004099598</v>
+        <v>0.1892997414015705</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.268118445351177</v>
+        <v>0.264076737119302</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>37435</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>27255</v>
+        <v>27274</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>50860</v>
+        <v>49948</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1677190268633729</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1221126398859865</v>
+        <v>0.1221972098196801</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2278704217956656</v>
+        <v>0.2237839036268876</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>48</v>
@@ -7241,19 +7241,19 @@
         <v>51170</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>38473</v>
+        <v>39805</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>64372</v>
+        <v>65617</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2069973926495777</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1556335318216178</v>
+        <v>0.161022808434986</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2604026645722382</v>
+        <v>0.265440805499468</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>84</v>
@@ -7262,19 +7262,19 @@
         <v>88605</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>73309</v>
+        <v>71868</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>107204</v>
+        <v>104999</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1883603155895976</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1558439793294335</v>
+        <v>0.1527800826266754</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2279002905887335</v>
+        <v>0.2232121028442194</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>48811</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>38006</v>
+        <v>37347</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>61997</v>
+        <v>62886</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2186892915677162</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1702769683253639</v>
+        <v>0.1673265178483429</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2777672292574502</v>
+        <v>0.2817481291985502</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>63</v>
@@ -7312,19 +7312,19 @@
         <v>66618</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>54091</v>
+        <v>53771</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>83559</v>
+        <v>82110</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2694883153311847</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2188110268212557</v>
+        <v>0.2175175035128404</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3380201064641988</v>
+        <v>0.3321564949633801</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>111</v>
@@ -7333,19 +7333,19 @@
         <v>115429</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>97838</v>
+        <v>97265</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>134827</v>
+        <v>133538</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2453848349164257</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2079880340019645</v>
+        <v>0.2067714948023868</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2866219129659929</v>
+        <v>0.2838827503135802</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>49058</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>36320</v>
+        <v>36826</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>64399</v>
+        <v>64983</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1101388407787259</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.081540079854652</v>
+        <v>0.08267711458086648</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1445809646886867</v>
+        <v>0.1458913074415993</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>41</v>
@@ -7458,19 +7458,19 @@
         <v>41179</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>30181</v>
+        <v>30710</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>54056</v>
+        <v>55801</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07883585107089476</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05778136661496481</v>
+        <v>0.05879444537225715</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1034897940697678</v>
+        <v>0.1068301677882544</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>83</v>
@@ -7479,19 +7479,19 @@
         <v>90237</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>71856</v>
+        <v>72323</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>110101</v>
+        <v>110170</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.093243434703531</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07425027832392066</v>
+        <v>0.07473294222628664</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1137697610256173</v>
+        <v>0.113840661728117</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>113623</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>94109</v>
+        <v>94681</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>131581</v>
+        <v>132683</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2550920884720561</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2112807341584662</v>
+        <v>0.212566206374289</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2954081603897893</v>
+        <v>0.297881229930025</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>99</v>
@@ -7529,19 +7529,19 @@
         <v>104451</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>86345</v>
+        <v>86792</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>124593</v>
+        <v>124081</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1999693689596596</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1653060103940457</v>
+        <v>0.1661626873336998</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2385320613015532</v>
+        <v>0.2375503842770332</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>198</v>
@@ -7550,19 +7550,19 @@
         <v>218074</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>188171</v>
+        <v>193637</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>245985</v>
+        <v>246457</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2253402743858119</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1944400792047324</v>
+        <v>0.2000889778353782</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2541808720450537</v>
+        <v>0.2546685998717118</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>113836</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>95650</v>
+        <v>96277</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>134479</v>
+        <v>136177</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2555700788308382</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.214740641929774</v>
+        <v>0.2161482638171259</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3019133670812867</v>
+        <v>0.305726177662849</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>144</v>
@@ -7600,19 +7600,19 @@
         <v>154114</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>134067</v>
+        <v>135736</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>177177</v>
+        <v>175616</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2950492129743004</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2566692224155807</v>
+        <v>0.2598644148166438</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3392026142464055</v>
+        <v>0.3362145356786498</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>245</v>
@@ -7621,19 +7621,19 @@
         <v>267951</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>240038</v>
+        <v>239731</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>297756</v>
+        <v>296566</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2768784589273252</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2480356172541694</v>
+        <v>0.247718816250629</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3076767994923474</v>
+        <v>0.3064473342291027</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>58465</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>44503</v>
+        <v>44514</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>74444</v>
+        <v>74261</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1312582867855115</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09991186098538479</v>
+        <v>0.09993605418301124</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.167131244976575</v>
+        <v>0.1667205041242201</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>59</v>
@@ -7671,19 +7671,19 @@
         <v>64642</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>48971</v>
+        <v>49240</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>81490</v>
+        <v>80820</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1237566686370497</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.09375348813539454</v>
+        <v>0.09426914999359633</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1560119643910761</v>
+        <v>0.1547285294272111</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>111</v>
@@ -7692,19 +7692,19 @@
         <v>123108</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>102006</v>
+        <v>103918</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>144395</v>
+        <v>146845</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.127209380082916</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1054042974422727</v>
+        <v>0.1073807110728092</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1492056168852136</v>
+        <v>0.1517372263043073</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>110438</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>90526</v>
+        <v>91564</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>129078</v>
+        <v>129495</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2479407051328683</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2032364646687322</v>
+        <v>0.2055669151679491</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2897888578328159</v>
+        <v>0.2907259104460103</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>138</v>
@@ -7742,19 +7742,19 @@
         <v>157948</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>134171</v>
+        <v>136667</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>180074</v>
+        <v>180008</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3023888983580956</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2568686011418401</v>
+        <v>0.2616470157258629</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3447494367518013</v>
+        <v>0.3446216722689551</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>235</v>
@@ -7763,19 +7763,19 @@
         <v>268386</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>239166</v>
+        <v>236732</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>298319</v>
+        <v>296545</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2773284519004159</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2471350307061542</v>
+        <v>0.2446197355075941</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3082585803496236</v>
+        <v>0.3064251372514705</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>59138</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>46546</v>
+        <v>45228</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>76390</v>
+        <v>75426</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.09168861223891195</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0721655458384319</v>
+        <v>0.07012137618402244</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1184361727071652</v>
+        <v>0.1169415116285844</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>47</v>
@@ -7888,19 +7888,19 @@
         <v>49188</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>36069</v>
+        <v>36973</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>63189</v>
+        <v>65146</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06646303019538273</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04873636462704556</v>
+        <v>0.04995738067667446</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08538095291607854</v>
+        <v>0.08802494252786908</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>104</v>
@@ -7909,19 +7909,19 @@
         <v>108327</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>90283</v>
+        <v>88455</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>130026</v>
+        <v>128001</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07820984366000214</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06518266823062031</v>
+        <v>0.06386290829463176</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0938762438816278</v>
+        <v>0.092414491541554</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>168232</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>146382</v>
+        <v>146995</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>190973</v>
+        <v>194183</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2608296625990979</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2269522068930148</v>
+        <v>0.2279034738787786</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2960865235169445</v>
+        <v>0.3010643732009949</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>173</v>
@@ -7959,19 +7959,19 @@
         <v>182377</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>160488</v>
+        <v>156397</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>207908</v>
+        <v>205620</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2464268436611232</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2168505668817747</v>
+        <v>0.2113219700698297</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.280923345437434</v>
+        <v>0.2778320078432395</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>333</v>
@@ -7980,19 +7980,19 @@
         <v>350610</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>318197</v>
+        <v>315986</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>382988</v>
+        <v>380739</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2531338138764042</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2297327708517131</v>
+        <v>0.2281365365117822</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2765101325943179</v>
+        <v>0.2748868953237535</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>196090</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>173019</v>
+        <v>172467</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>220323</v>
+        <v>218804</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.304021211581963</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2682507676613907</v>
+        <v>0.2673954885420031</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3415917162471103</v>
+        <v>0.3392368691690747</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>212</v>
@@ -8030,19 +8030,19 @@
         <v>234427</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>209015</v>
+        <v>210490</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>262878</v>
+        <v>260313</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3167554473487937</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.282419162136798</v>
+        <v>0.2844124180426236</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3551986811969414</v>
+        <v>0.3517324047982721</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>405</v>
@@ -8051,19 +8051,19 @@
         <v>430517</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>395294</v>
+        <v>394172</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>465747</v>
+        <v>467762</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3108254873617727</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2853949458281887</v>
+        <v>0.284585273696018</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3362610238456936</v>
+        <v>0.3377158752422049</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>109783</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>90268</v>
+        <v>91527</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>129030</v>
+        <v>129990</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1702091291084019</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1399522579098018</v>
+        <v>0.141904085215994</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2000503208376103</v>
+        <v>0.2015383543451175</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>110</v>
@@ -8101,19 +8101,19 @@
         <v>123166</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>103862</v>
+        <v>102532</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>144529</v>
+        <v>145563</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1664208302732206</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1403372254850529</v>
+        <v>0.1385399883377787</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1952866141582607</v>
+        <v>0.1966831591891567</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>214</v>
@@ -8122,19 +8122,19 @@
         <v>232949</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>205474</v>
+        <v>205955</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>263220</v>
+        <v>265182</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.16818492989591</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1483483656358019</v>
+        <v>0.1486955035227743</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1900401682076026</v>
+        <v>0.1914565183964466</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>111745</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>92835</v>
+        <v>92476</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>131571</v>
+        <v>129550</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1732513844716252</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1439325125270835</v>
+        <v>0.1433757173063306</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2039897172510197</v>
+        <v>0.2008554329655192</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>131</v>
@@ -8172,19 +8172,19 @@
         <v>150929</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>127098</v>
+        <v>129339</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>174003</v>
+        <v>178540</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2039338485214797</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1717342677410552</v>
+        <v>0.1747621798805156</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2351114037824137</v>
+        <v>0.2412418442427554</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>239</v>
@@ -8193,19 +8193,19 @@
         <v>262674</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>232182</v>
+        <v>233585</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>292282</v>
+        <v>293347</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.189645925205911</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1676310824810469</v>
+        <v>0.1686441089377331</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2110220266351235</v>
+        <v>0.2117913757129734</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>329509</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>297418</v>
+        <v>296198</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>368146</v>
+        <v>363645</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1211852875808449</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1093829963533201</v>
+        <v>0.1089344915126355</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.135395140574036</v>
+        <v>0.1337397828571644</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>273</v>
@@ -8318,19 +8318,19 @@
         <v>281869</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>250641</v>
+        <v>253489</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>315738</v>
+        <v>314975</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.09145244121436281</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0813204442604496</v>
+        <v>0.08224454070289278</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1024410981493188</v>
+        <v>0.1021938176191386</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>586</v>
@@ -8339,19 +8339,19 @@
         <v>611378</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>560961</v>
+        <v>563592</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>661948</v>
+        <v>657550</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1053883905713705</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.09669762069587043</v>
+        <v>0.09715115119451578</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.114105583292288</v>
+        <v>0.1133474626978891</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>707829</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>663343</v>
+        <v>662101</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>757804</v>
+        <v>754331</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2603225271678248</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2439616034676893</v>
+        <v>0.2435046681818523</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2787019422417042</v>
+        <v>0.2774245286944833</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>723</v>
@@ -8389,19 +8389,19 @@
         <v>754070</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>706097</v>
+        <v>705336</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>802548</v>
+        <v>802231</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2446581775924233</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2290934040034715</v>
+        <v>0.2288464666795036</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2603868672652458</v>
+        <v>0.2602838118309526</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1398</v>
@@ -8410,19 +8410,19 @@
         <v>1461900</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1394631</v>
+        <v>1391903</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1530448</v>
+        <v>1528799</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2520001447792362</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.240404368320639</v>
+        <v>0.2399342072148789</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2638163464519503</v>
+        <v>0.2635321511723172</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>752913</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>706180</v>
+        <v>705634</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>801677</v>
+        <v>797295</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2769031059591977</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2597158219084326</v>
+        <v>0.259515206892136</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2948372440760425</v>
+        <v>0.2932257106457117</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>768</v>
@@ -8460,19 +8460,19 @@
         <v>819437</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>769441</v>
+        <v>764390</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>869059</v>
+        <v>866994</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2658663829867103</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2496450614716058</v>
+        <v>0.2480064855871615</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2819663039990825</v>
+        <v>0.281296363490914</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1493</v>
@@ -8481,19 +8481,19 @@
         <v>1572350</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1498839</v>
+        <v>1500533</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1641894</v>
+        <v>1640761</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2710393560184916</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2583676032995553</v>
+        <v>0.2586596824978977</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2830272650655321</v>
+        <v>0.282832016586681</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>364238</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>326708</v>
+        <v>328969</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>397299</v>
+        <v>397696</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1339579729362562</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1201554446593967</v>
+        <v>0.1209867380758588</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1461169732886069</v>
+        <v>0.14626296076775</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>420</v>
@@ -8531,19 +8531,19 @@
         <v>457805</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>416538</v>
+        <v>419911</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>502390</v>
+        <v>500337</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1485348718140669</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1351458956770366</v>
+        <v>0.1362400415313318</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1630004956070428</v>
+        <v>0.1623344378660604</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>768</v>
@@ -8552,19 +8552,19 @@
         <v>822043</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>764361</v>
+        <v>768115</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>875036</v>
+        <v>874703</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.141702598777053</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1317594845587551</v>
+        <v>0.132406503904543</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1508373478745965</v>
+        <v>0.1507800887560174</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>564559</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>523291</v>
+        <v>523839</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>612067</v>
+        <v>610469</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2076311063558764</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1924537617027382</v>
+        <v>0.192655422920089</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2251034112162647</v>
+        <v>0.2245157238147977</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>697</v>
@@ -8602,19 +8602,19 @@
         <v>768957</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>721140</v>
+        <v>719568</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>817497</v>
+        <v>819112</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2494881263924367</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2339740942044537</v>
+        <v>0.2334639647124452</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2652370941029626</v>
+        <v>0.2657609778276425</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1236</v>
@@ -8623,19 +8623,19 @@
         <v>1333516</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1264261</v>
+        <v>1271955</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1398633</v>
+        <v>1395514</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2298695098538487</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2179314705919975</v>
+        <v>0.2192577445820949</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2410942345280161</v>
+        <v>0.2405566197600016</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>13876</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8597</v>
+        <v>7430</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23577</v>
+        <v>22849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04550514899930603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02819273689387878</v>
+        <v>0.02436682332396734</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07731868259850037</v>
+        <v>0.07492901441609444</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -8992,19 +8992,19 @@
         <v>6238</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3603</v>
+        <v>3338</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10922</v>
+        <v>10529</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0201599192458163</v>
+        <v>0.02015991924581631</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01164580827529732</v>
+        <v>0.01078681241772187</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03530007159350448</v>
+        <v>0.03402863798482993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -9013,19 +9013,19 @@
         <v>20114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12817</v>
+        <v>13148</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30214</v>
+        <v>29120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03274030697317773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02086331034086355</v>
+        <v>0.02140096774960502</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04918097245854688</v>
+        <v>0.04739901766573054</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>85246</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71268</v>
+        <v>69097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102612</v>
+        <v>102331</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.279551135638028</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2337112029030925</v>
+        <v>0.2265926319100805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3365010933172602</v>
+        <v>0.3355780576367389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>130</v>
@@ -9063,19 +9063,19 @@
         <v>82290</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68672</v>
+        <v>68921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96762</v>
+        <v>96431</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.265956239893924</v>
+        <v>0.2659562398939241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.221943857552326</v>
+        <v>0.2227485303102678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3127291679724378</v>
+        <v>0.3116597012737958</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>213</v>
@@ -9084,19 +9084,19 @@
         <v>167536</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146350</v>
+        <v>145627</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>190943</v>
+        <v>188362</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2727042181619189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2382195911228322</v>
+        <v>0.2370427647621235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.310805538125179</v>
+        <v>0.3066037865624708</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>64034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50671</v>
+        <v>50366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80279</v>
+        <v>80460</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2099901214413665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.166168081899716</v>
+        <v>0.1651680057498704</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2632622135765812</v>
+        <v>0.263857395395976</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -9134,19 +9134,19 @@
         <v>81464</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>68953</v>
+        <v>69938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93174</v>
+        <v>94507</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2632881937326738</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2228526035463019</v>
+        <v>0.2260363130557549</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3011332644380809</v>
+        <v>0.3054415132837843</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>208</v>
@@ -9155,19 +9155,19 @@
         <v>145498</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125796</v>
+        <v>128024</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>164438</v>
+        <v>165183</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2368331005625966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2047630274699605</v>
+        <v>0.2083891958538182</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2676622027837134</v>
+        <v>0.268874432529729</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>50465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37516</v>
+        <v>38923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65400</v>
+        <v>64201</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1654925249013178</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1230286788181154</v>
+        <v>0.127642166047605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2144694579813334</v>
+        <v>0.2105361724634351</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -9205,19 +9205,19 @@
         <v>40137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31827</v>
+        <v>31952</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50289</v>
+        <v>50141</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1297212269838688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1028619979768732</v>
+        <v>0.1032664273673473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1625333647760134</v>
+        <v>0.162055156557297</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -9226,19 +9226,19 @@
         <v>90602</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76050</v>
+        <v>75911</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106931</v>
+        <v>107957</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1474767100348955</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1237896719710459</v>
+        <v>0.123562530667162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1740559173290371</v>
+        <v>0.1757256220601192</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>91317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76242</v>
+        <v>77093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107221</v>
+        <v>108372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2994610690199815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2500252198198177</v>
+        <v>0.2528140174120181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3516141473000761</v>
+        <v>0.3553902507293158</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -9276,19 +9276,19 @@
         <v>99282</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>85834</v>
+        <v>87523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113444</v>
+        <v>113696</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.320874420143717</v>
+        <v>0.3208744201437171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2774102381158781</v>
+        <v>0.2828718391948812</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3666469582057868</v>
+        <v>0.3674599093581596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>278</v>
@@ -9297,19 +9297,19 @@
         <v>190599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>171113</v>
+        <v>170226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>210745</v>
+        <v>213348</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3102456642674113</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2785273159981309</v>
+        <v>0.277083059536371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3430377951217242</v>
+        <v>0.34727437314587</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>63504</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44901</v>
+        <v>46626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84455</v>
+        <v>87303</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.137813500537656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09744230246206463</v>
+        <v>0.1011855266964244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1832803108018601</v>
+        <v>0.1894621430558717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>111</v>
@@ -9422,19 +9422,19 @@
         <v>83444</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69193</v>
+        <v>69441</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97906</v>
+        <v>100004</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1680675178407699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1393648844984848</v>
+        <v>0.1398638549686445</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1971962341059402</v>
+        <v>0.2014218024890944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -9443,19 +9443,19 @@
         <v>146948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124846</v>
+        <v>122016</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173208</v>
+        <v>171935</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1535045668726434</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1304164648423317</v>
+        <v>0.1274603962392173</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1809363981236737</v>
+        <v>0.1796065259704109</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>204051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178940</v>
+        <v>177404</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>230636</v>
+        <v>228030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.442822899938502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3883289143137884</v>
+        <v>0.3849953260482961</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5005174365946146</v>
+        <v>0.4948615800894097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -9493,19 +9493,19 @@
         <v>196820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178208</v>
+        <v>178474</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>216583</v>
+        <v>217438</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3964225506139815</v>
+        <v>0.3964225506139814</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3589342615951427</v>
+        <v>0.3594705717302648</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4362280082842513</v>
+        <v>0.4379498425345511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>406</v>
@@ -9514,19 +9514,19 @@
         <v>400871</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>369850</v>
+        <v>370372</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>431739</v>
+        <v>435404</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4187576344260537</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3863521780124947</v>
+        <v>0.3868971789695084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4510024712507695</v>
+        <v>0.4548316772456695</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>98233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79048</v>
+        <v>77416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>121834</v>
+        <v>120108</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.213181061701112</v>
+        <v>0.2131810617011119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1715465091446804</v>
+        <v>0.1680043140640519</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2643993379780453</v>
+        <v>0.2606525730087971</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -9564,19 +9564,19 @@
         <v>104595</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>89030</v>
+        <v>90061</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>121793</v>
+        <v>119561</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2106683464343254</v>
+        <v>0.2106683464343253</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1793175771272586</v>
+        <v>0.1813959024460406</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2453080988878772</v>
+        <v>0.240811991842027</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>225</v>
@@ -9585,19 +9585,19 @@
         <v>202828</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>178859</v>
+        <v>177118</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>232368</v>
+        <v>231509</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2118778568560474</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1868397525837952</v>
+        <v>0.1850204780360382</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2427363731857021</v>
+        <v>0.2418382371008705</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>41316</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28214</v>
+        <v>28984</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58463</v>
+        <v>59114</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08966159126009779</v>
+        <v>0.08966159126009778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0612295849412768</v>
+        <v>0.06289906487802716</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1268736406423539</v>
+        <v>0.128287647765784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -9635,19 +9635,19 @@
         <v>43637</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34374</v>
+        <v>33301</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54531</v>
+        <v>55203</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08789045071595231</v>
+        <v>0.08789045071595229</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06923450493767634</v>
+        <v>0.06707190313110795</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1098327759800853</v>
+        <v>0.1111853799665651</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -9656,19 +9656,19 @@
         <v>84953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67719</v>
+        <v>68951</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104806</v>
+        <v>107355</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08874299973923183</v>
+        <v>0.08874299973923182</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07074076135676736</v>
+        <v>0.07202780964909256</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1094824540487974</v>
+        <v>0.1121449070279317</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>53692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40585</v>
+        <v>40489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71895</v>
+        <v>70805</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1165209465626323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08807501277750773</v>
+        <v>0.0878664866103757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1560240828847518</v>
+        <v>0.1536569870482014</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>95</v>
@@ -9706,19 +9706,19 @@
         <v>67995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55429</v>
+        <v>55134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81849</v>
+        <v>81294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.136951134394971</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1116419628171272</v>
+        <v>0.1110478504933559</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1648546917124949</v>
+        <v>0.163736788011564</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -9727,19 +9727,19 @@
         <v>121687</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>102355</v>
+        <v>104359</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142875</v>
+        <v>143545</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1271169421060236</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1069215827848435</v>
+        <v>0.109015284066748</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1492499588857782</v>
+        <v>0.1499496766797288</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>37315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27488</v>
+        <v>27231</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50655</v>
+        <v>50574</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1272418358103598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09373181198487129</v>
+        <v>0.09285693149916109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1727315739836905</v>
+        <v>0.1724567434514189</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -9852,19 +9852,19 @@
         <v>43748</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33689</v>
+        <v>34479</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56277</v>
+        <v>56165</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1273729525869225</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09808572553216717</v>
+        <v>0.1003872053598431</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1638528892158736</v>
+        <v>0.1635245327423521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -9873,19 +9873,19 @@
         <v>81063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65172</v>
+        <v>65782</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98514</v>
+        <v>100111</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1273125634247971</v>
+        <v>0.127312563424797</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1023554005801426</v>
+        <v>0.10331367298443</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1547215454301601</v>
+        <v>0.1572292017481658</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>54117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41557</v>
+        <v>42129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69569</v>
+        <v>68343</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1845382219058075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.141707757006986</v>
+        <v>0.1436600359529153</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.237229588123744</v>
+        <v>0.23304565054482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>88</v>
@@ -9923,19 +9923,19 @@
         <v>62736</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50987</v>
+        <v>50701</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74795</v>
+        <v>74865</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1826572754614955</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1484505646954766</v>
+        <v>0.1476161607068018</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2177661499406077</v>
+        <v>0.2179724362364039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -9944,19 +9944,19 @@
         <v>116853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100603</v>
+        <v>99115</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>135931</v>
+        <v>136143</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1835235931269587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1580014132662265</v>
+        <v>0.1556642183022669</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2134853069613934</v>
+        <v>0.2138184876323568</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>89339</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74762</v>
+        <v>73823</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>105107</v>
+        <v>104127</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3046422223501464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.254934955495515</v>
+        <v>0.2517355298884459</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.358412683002108</v>
+        <v>0.3550682156400479</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>141</v>
@@ -9994,19 +9994,19 @@
         <v>92599</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79306</v>
+        <v>79504</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>107586</v>
+        <v>107561</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2696027699859209</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2309004833717131</v>
+        <v>0.2314779831958088</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3132376694379352</v>
+        <v>0.313167303544397</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>242</v>
@@ -10015,19 +10015,19 @@
         <v>181937</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>162818</v>
+        <v>163165</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>202435</v>
+        <v>205292</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2857410798581005</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2557137873714498</v>
+        <v>0.2562588824039865</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3179334422766473</v>
+        <v>0.3224213280612682</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>36201</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26977</v>
+        <v>26496</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46747</v>
+        <v>45621</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1234439954379627</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09199226518598498</v>
+        <v>0.09035189924056579</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1594051998896452</v>
+        <v>0.1555673882643925</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -10065,19 +10065,19 @@
         <v>52137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41969</v>
+        <v>42852</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63365</v>
+        <v>63559</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1517993730199664</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1221934439043668</v>
+        <v>0.1247643352844761</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1844883796873951</v>
+        <v>0.1850531345893283</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -10086,19 +10086,19 @@
         <v>88338</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74819</v>
+        <v>73080</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103607</v>
+        <v>103715</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1387395835802137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1175067662047027</v>
+        <v>0.1147748917566801</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1627189047547093</v>
+        <v>0.1628890816352825</v>
       </c>
     </row>
     <row r="20">
@@ -10115,19 +10115,19 @@
         <v>76286</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63614</v>
+        <v>62620</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90299</v>
+        <v>89819</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2601337244957234</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2169202758209605</v>
+        <v>0.2135312156645867</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3079156365454532</v>
+        <v>0.3062785454532633</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>149</v>
@@ -10136,19 +10136,19 @@
         <v>92243</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78956</v>
+        <v>78462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>105922</v>
+        <v>104664</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2685676289456946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2298818168906923</v>
+        <v>0.2284445191620551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3083931153490339</v>
+        <v>0.3047301451721868</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>246</v>
@@ -10157,19 +10157,19 @@
         <v>168529</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>149449</v>
+        <v>148224</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>187990</v>
+        <v>187274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2646831800099301</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.234716568638322</v>
+        <v>0.232792060281522</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2952463809080249</v>
+        <v>0.2941226577127207</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>24523</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13951</v>
+        <v>14301</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38409</v>
+        <v>39271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07790183161444499</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04431719858426177</v>
+        <v>0.04543115639656106</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.122013014159273</v>
+        <v>0.124751124029288</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -10282,19 +10282,19 @@
         <v>34085</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24564</v>
+        <v>25040</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48126</v>
+        <v>47279</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08856327880217013</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06382452838521264</v>
+        <v>0.06506178725479847</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1250476444127196</v>
+        <v>0.1228468714372293</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>56</v>
@@ -10303,19 +10303,19 @@
         <v>58607</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44751</v>
+        <v>43679</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>78868</v>
+        <v>76201</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08376640914586424</v>
+        <v>0.08376640914586425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06396197573810325</v>
+        <v>0.06243019486015036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1127241306390365</v>
+        <v>0.1089128969401565</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>63066</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46597</v>
+        <v>45711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82973</v>
+        <v>82391</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2003424678118186</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1480243713505585</v>
+        <v>0.1452108622851792</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2635788188194468</v>
+        <v>0.2617318195987606</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>82</v>
@@ -10353,19 +10353,19 @@
         <v>62487</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50600</v>
+        <v>49736</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>77998</v>
+        <v>79778</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1623620717890281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1314760091122779</v>
+        <v>0.1292316978972631</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2026652202487783</v>
+        <v>0.207290113197451</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>129</v>
@@ -10374,19 +10374,19 @@
         <v>125553</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>104259</v>
+        <v>102596</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>150686</v>
+        <v>150637</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1794504657010631</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1490155272598183</v>
+        <v>0.1466387439002214</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2153717982944851</v>
+        <v>0.2153030465556724</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>60962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45118</v>
+        <v>45018</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>80441</v>
+        <v>82706</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.193657211327978</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1433256150339909</v>
+        <v>0.1430081683869085</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2555369792942701</v>
+        <v>0.2627305266276762</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>95</v>
@@ -10424,19 +10424,19 @@
         <v>71995</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>58679</v>
+        <v>58695</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>87800</v>
+        <v>89083</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1870663936545131</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1524667528064656</v>
+        <v>0.1525108228487697</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2281349336460434</v>
+        <v>0.2314679482139199</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>133</v>
@@ -10445,19 +10445,19 @@
         <v>132956</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110225</v>
+        <v>108986</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>160294</v>
+        <v>158854</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1900317784424702</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1575422615175712</v>
+        <v>0.1557710833494402</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2291046767083286</v>
+        <v>0.2270469031372334</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>54816</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37358</v>
+        <v>39863</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74938</v>
+        <v>72242</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1741334559884755</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1186738315837965</v>
+        <v>0.1266308579030027</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2380552733181048</v>
+        <v>0.2294889864906946</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>87</v>
@@ -10495,19 +10495,19 @@
         <v>55900</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44463</v>
+        <v>44301</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68977</v>
+        <v>69279</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1452475065932274</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1155287905914658</v>
+        <v>0.1151096932370577</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1792258004148901</v>
+        <v>0.1800116571287841</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>131</v>
@@ -10516,19 +10516,19 @@
         <v>110716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>90997</v>
+        <v>90487</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>131536</v>
+        <v>135472</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1582440662260682</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.13006019248204</v>
+        <v>0.1293317026616533</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1880015146866137</v>
+        <v>0.1936269846147481</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>111426</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95073</v>
+        <v>94583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>131768</v>
+        <v>134147</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.353965033257283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3020170938260512</v>
+        <v>0.3004597325394154</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4185858476445182</v>
+        <v>0.4261444046988286</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>259</v>
@@ -10566,19 +10566,19 @@
         <v>160395</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>142150</v>
+        <v>142803</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>177950</v>
+        <v>178986</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4167607491610612</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3693543182844576</v>
+        <v>0.3710509419517988</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4623751803742006</v>
+        <v>0.4650659328779925</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>375</v>
@@ -10587,19 +10587,19 @@
         <v>271820</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>243379</v>
+        <v>247372</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>298698</v>
+        <v>301151</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3885072804845342</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.347856842828151</v>
+        <v>0.3535632282945819</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4269227211847781</v>
+        <v>0.4304284767073822</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>8913</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4566</v>
+        <v>4756</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15042</v>
+        <v>15550</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05484794667432588</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02810145302430981</v>
+        <v>0.02926850244220468</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09256812599049319</v>
+        <v>0.09569234228762996</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -10712,19 +10712,19 @@
         <v>8986</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5043</v>
+        <v>5177</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14735</v>
+        <v>14265</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04569120997411454</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02564090677117856</v>
+        <v>0.02632373875553102</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07492686314380981</v>
+        <v>0.07253665826288126</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -10733,19 +10733,19 @@
         <v>17898</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11725</v>
+        <v>11735</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25025</v>
+        <v>25273</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04983409307137961</v>
+        <v>0.04983409307137959</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03264450529290112</v>
+        <v>0.03267233278911091</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06967661722383729</v>
+        <v>0.07036613583604324</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>31192</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23959</v>
+        <v>22838</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40326</v>
+        <v>40199</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1919533406877786</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1474383071153198</v>
+        <v>0.1405447859426346</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.248159062543107</v>
+        <v>0.2473803414914974</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>75</v>
@@ -10783,19 +10783,19 @@
         <v>33748</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26756</v>
+        <v>26495</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41799</v>
+        <v>41596</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1716019266277085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1360492643265108</v>
+        <v>0.1347233018230429</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2125441673783739</v>
+        <v>0.2115082591285075</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>120</v>
@@ -10804,19 +10804,19 @@
         <v>64940</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>54411</v>
+        <v>53670</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76259</v>
+        <v>77021</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1808097407295338</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1514938582149428</v>
+        <v>0.1494324971527919</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2123246130317067</v>
+        <v>0.2144469758925266</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>80414</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68973</v>
+        <v>69367</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90898</v>
+        <v>90547</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.494858218832399</v>
+        <v>0.4948582188323989</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4244494821369869</v>
+        <v>0.4268754696670203</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5593754577535823</v>
+        <v>0.5572164921185107</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>185</v>
@@ -10854,19 +10854,19 @@
         <v>80952</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>70588</v>
+        <v>71543</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89696</v>
+        <v>90185</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4116277351524599</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3589304809793333</v>
+        <v>0.3637844447293863</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4560900704262289</v>
+        <v>0.4585808841480575</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>301</v>
@@ -10875,19 +10875,19 @@
         <v>161366</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>147518</v>
+        <v>147061</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>175131</v>
+        <v>175607</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4492846183089732</v>
+        <v>0.449284618308973</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4107294976168992</v>
+        <v>0.4094562940695707</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4876108159267557</v>
+        <v>0.488936335041408</v>
       </c>
     </row>
     <row r="31">
@@ -10904,19 +10904,19 @@
         <v>26391</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>19389</v>
+        <v>19392</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34910</v>
+        <v>35066</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1624041682506971</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1193162457241009</v>
+        <v>0.1193384247762072</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2148335129401389</v>
+        <v>0.2157914375487416</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>101</v>
@@ -10925,19 +10925,19 @@
         <v>41958</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>34426</v>
+        <v>34584</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>50442</v>
+        <v>49576</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2133527397772834</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1750511664329731</v>
+        <v>0.17585537975744</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2564903616944602</v>
+        <v>0.2520897299462497</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>141</v>
@@ -10946,19 +10946,19 @@
         <v>68349</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>57665</v>
+        <v>58377</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>79908</v>
+        <v>81189</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1903015171946331</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1605537629362007</v>
+        <v>0.1625358471178262</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.22248595245577</v>
+        <v>0.2260518070542338</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>15590</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10225</v>
+        <v>10325</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23774</v>
+        <v>22729</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.09593632555479946</v>
+        <v>0.09593632555479945</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06292258580957014</v>
+        <v>0.06353608489704909</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1463046550347236</v>
+        <v>0.1398710049166335</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -10996,19 +10996,19 @@
         <v>31019</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25096</v>
+        <v>24846</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38939</v>
+        <v>38457</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1577263884684336</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1276121968900697</v>
+        <v>0.1263371015097617</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1980008581984876</v>
+        <v>0.1955467113527306</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>96</v>
@@ -11017,19 +11017,19 @@
         <v>46608</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37564</v>
+        <v>38712</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>55822</v>
+        <v>56401</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1297700306954803</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1045869088706753</v>
+        <v>0.107783603294856</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1554233767514634</v>
+        <v>0.1570366663473112</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>35757</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>26042</v>
+        <v>25223</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>47099</v>
+        <v>47458</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.141831734799239</v>
+        <v>0.1418317347992389</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1032977469637402</v>
+        <v>0.1000502102758292</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1868198523898676</v>
+        <v>0.1882464098568521</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>32</v>
@@ -11142,19 +11142,19 @@
         <v>23331</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>16091</v>
+        <v>16507</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>32758</v>
+        <v>33885</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.09197141956860309</v>
+        <v>0.09197141956860311</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06343142678573231</v>
+        <v>0.06506959446994193</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1291329094742039</v>
+        <v>0.1335766577119381</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>71</v>
@@ -11163,19 +11163,19 @@
         <v>59088</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>46847</v>
+        <v>46597</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>73699</v>
+        <v>73623</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1168242409355231</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09262282516183525</v>
+        <v>0.09212773359689938</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1457116443752642</v>
+        <v>0.1455626304262316</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>59532</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>48073</v>
+        <v>46857</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>74543</v>
+        <v>73662</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.2361382901199628</v>
+        <v>0.2361382901199629</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1906866524216862</v>
+        <v>0.185861412877514</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2956817426489277</v>
+        <v>0.2921860543220745</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>79</v>
@@ -11213,19 +11213,19 @@
         <v>52289</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>42553</v>
+        <v>41942</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>64860</v>
+        <v>63357</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2061232319447916</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1677445790904402</v>
+        <v>0.1653363384297326</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2556795837310898</v>
+        <v>0.249754145646646</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>144</v>
@@ -11234,19 +11234,19 @@
         <v>111821</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>95598</v>
+        <v>97028</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>129395</v>
+        <v>129522</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.221084205931713</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1890098416242636</v>
+        <v>0.1918367597919353</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2558297738013421</v>
+        <v>0.2560808196885204</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>59819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>48955</v>
+        <v>48048</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>72618</v>
+        <v>72671</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2372764622719139</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1941824792800853</v>
+        <v>0.1905843766629953</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2880458595040893</v>
+        <v>0.2882540610241859</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>112</v>
@@ -11284,19 +11284,19 @@
         <v>65958</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>55580</v>
+        <v>55149</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>77763</v>
+        <v>76498</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.260009135651134</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2190992868695838</v>
+        <v>0.2173976162911229</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3065462461103657</v>
+        <v>0.3015564657649891</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>198</v>
@@ -11305,19 +11305,19 @@
         <v>125777</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>109801</v>
+        <v>111340</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>143367</v>
+        <v>144494</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2486780586598847</v>
+        <v>0.2486780586598848</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2170914297035478</v>
+        <v>0.220133094254495</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2834544310395216</v>
+        <v>0.2856824939878438</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>40269</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31516</v>
+        <v>31283</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>50925</v>
+        <v>50939</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1597291489765885</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1250117874142621</v>
+        <v>0.1240864088987155</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2019964221349638</v>
+        <v>0.2020513734148349</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>88</v>
@@ -11355,19 +11355,19 @@
         <v>42605</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>34084</v>
+        <v>34489</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>52070</v>
+        <v>51770</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1679496603336906</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1343614514285354</v>
+        <v>0.1359551773603518</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2052634326963056</v>
+        <v>0.2040780927832732</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>154</v>
@@ -11376,19 +11376,19 @@
         <v>82874</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>70450</v>
+        <v>71582</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>95635</v>
+        <v>96104</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1638521551462933</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1392877938513388</v>
+        <v>0.1415270006099631</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1890818006433375</v>
+        <v>0.1900108635703749</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>56730</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>46552</v>
+        <v>47632</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>67990</v>
+        <v>67398</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2250243638322957</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1846505525929032</v>
+        <v>0.1889359452130599</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2696883346949679</v>
+        <v>0.2673375232931137</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>140</v>
@@ -11426,19 +11426,19 @@
         <v>69494</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>59536</v>
+        <v>59762</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>81229</v>
+        <v>80831</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.2739465525017806</v>
+        <v>0.2739465525017807</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2346920972590659</v>
+        <v>0.2355842097125062</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3202059703921397</v>
+        <v>0.3186400568684682</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>238</v>
@@ -11447,19 +11447,19 @@
         <v>126224</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>111020</v>
+        <v>112486</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>141058</v>
+        <v>140919</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2495613393265859</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2195005947676025</v>
+        <v>0.2223989515909548</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2788898314659929</v>
+        <v>0.2786152956448446</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>46694</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>34189</v>
+        <v>32994</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>64678</v>
+        <v>62795</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.07809335112696271</v>
+        <v>0.07809335112696274</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05718025807644787</v>
+        <v>0.05518116169694476</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1081709409759675</v>
+        <v>0.1050229574980095</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>54</v>
@@ -11572,19 +11572,19 @@
         <v>42000</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>31861</v>
+        <v>32306</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>53888</v>
+        <v>56089</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06053318375252559</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04591914530452466</v>
+        <v>0.04656161318198064</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0776656527414836</v>
+        <v>0.08083911539074723</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>93</v>
@@ -11593,19 +11593,19 @@
         <v>88694</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>71676</v>
+        <v>70986</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>108827</v>
+        <v>110073</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06866130113444291</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05548692788175763</v>
+        <v>0.05495310030627402</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08424695610369164</v>
+        <v>0.08521165170055398</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>103328</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>81715</v>
+        <v>84933</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>125753</v>
+        <v>128165</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.172812676535155</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1366649498038698</v>
+        <v>0.1420470420987259</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2103179239182316</v>
+        <v>0.2143511525425089</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>143</v>
@@ -11643,19 +11643,19 @@
         <v>120966</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>103385</v>
+        <v>102973</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>141403</v>
+        <v>141385</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1743421651817945</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1490045282055587</v>
+        <v>0.148410926869791</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2037979966140186</v>
+        <v>0.2037714555711221</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>224</v>
@@ -11664,19 +11664,19 @@
         <v>224294</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>194423</v>
+        <v>196609</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>253779</v>
+        <v>257590</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1736342070519482</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1505097231310498</v>
+        <v>0.1522024363382919</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1964598239953541</v>
+        <v>0.1994097304850463</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>190683</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>164532</v>
+        <v>165373</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>218637</v>
+        <v>214852</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.3189113548044737</v>
+        <v>0.3189113548044738</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2751738756954471</v>
+        <v>0.2765800174675452</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3656618987504666</v>
+        <v>0.3593315694994005</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>229</v>
@@ -11714,19 +11714,19 @@
         <v>183233</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>161605</v>
+        <v>161564</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>205066</v>
+        <v>204413</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2640859452204481</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2329138019643391</v>
+        <v>0.2328550906777216</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2955520869939418</v>
+        <v>0.2946110717741421</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>389</v>
@@ -11735,19 +11735,19 @@
         <v>373917</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>341643</v>
+        <v>340371</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>407596</v>
+        <v>407769</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2894631158993203</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2644785381641007</v>
+        <v>0.2634937027333868</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3155350610686564</v>
+        <v>0.3156689828270343</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>105930</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>87914</v>
+        <v>88795</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>126143</v>
+        <v>126378</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1771644119427102</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.14703256690127</v>
+        <v>0.1485072705933192</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2109691441925453</v>
+        <v>0.2113626362384687</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>144</v>
@@ -11785,19 +11785,19 @@
         <v>112983</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>94425</v>
+        <v>96373</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>131243</v>
+        <v>132611</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1628371140787667</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1360899791488251</v>
+        <v>0.1388979476537607</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.189154777833155</v>
+        <v>0.1911264514095383</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>243</v>
@@ -11806,19 +11806,19 @@
         <v>218913</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>194289</v>
+        <v>193746</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>247029</v>
+        <v>247397</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1694688252874738</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1504066258506559</v>
+        <v>0.1499856648935585</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1912346101392646</v>
+        <v>0.1915193969504339</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>151285</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>129891</v>
+        <v>130517</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>177032</v>
+        <v>176380</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2530182055906982</v>
+        <v>0.2530182055906983</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2172377940217114</v>
+        <v>0.2182843054076665</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2960805456450155</v>
+        <v>0.294989218217845</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>301</v>
@@ -11856,19 +11856,19 @@
         <v>234658</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>209835</v>
+        <v>210530</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>259085</v>
+        <v>256257</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.338201591766465</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3024253859952539</v>
+        <v>0.303427695755736</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3734070603585877</v>
+        <v>0.3693321812155336</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>439</v>
@@ -11877,19 +11877,19 @@
         <v>385943</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>353819</v>
+        <v>355850</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>417499</v>
+        <v>419585</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2987725506268148</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2739046243846824</v>
+        <v>0.2754765883976146</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3232012357714139</v>
+        <v>0.3248164093305398</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>19717</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11811</v>
+        <v>11459</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>30519</v>
+        <v>30125</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.03915960880808999</v>
+        <v>0.03915960880808998</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02345700108386073</v>
+        <v>0.02275914607971703</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06061471351139211</v>
+        <v>0.05983074744123898</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>22</v>
@@ -12002,19 +12002,19 @@
         <v>17444</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>10856</v>
+        <v>11213</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>26886</v>
+        <v>26272</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.02913974432562447</v>
+        <v>0.02913974432562449</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01813423739228493</v>
+        <v>0.0187300679710577</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04491203989623161</v>
+        <v>0.04388602441950375</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>40</v>
@@ -12023,19 +12023,19 @@
         <v>37161</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>27366</v>
+        <v>27395</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>50606</v>
+        <v>49982</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.03371719287698427</v>
+        <v>0.03371719287698428</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02482971158493156</v>
+        <v>0.02485634308016577</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04591594224655911</v>
+        <v>0.04535018932415007</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>137404</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>119942</v>
+        <v>118862</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>157708</v>
+        <v>159152</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2728989622996255</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2382183382079177</v>
+        <v>0.2360724334353964</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3132249674698407</v>
+        <v>0.3160925366378045</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>154</v>
@@ -12073,19 +12073,19 @@
         <v>118543</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>102725</v>
+        <v>102272</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>136793</v>
+        <v>137296</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1980208583929622</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1715980871635771</v>
+        <v>0.1708408463554971</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2285064243201673</v>
+        <v>0.2293457199828294</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>288</v>
@@ -12094,19 +12094,19 @@
         <v>255947</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>228230</v>
+        <v>229083</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>280079</v>
+        <v>282138</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.2322279745526596</v>
+        <v>0.2322279745526597</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2070798436768546</v>
+        <v>0.2078538631450427</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.254123370964126</v>
+        <v>0.2559920955486834</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>168766</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>150183</v>
+        <v>148177</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>188305</v>
+        <v>189209</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.335186815422677</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.298278951805273</v>
+        <v>0.2942962290669036</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3739943974300325</v>
+        <v>0.3757891268166489</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>301</v>
@@ -12144,19 +12144,19 @@
         <v>218490</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>199677</v>
+        <v>198959</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>238696</v>
+        <v>238932</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.3649765341645185</v>
+        <v>0.3649765341645186</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3335506082994764</v>
+        <v>0.3323516305083635</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3987305464835501</v>
+        <v>0.3991242592445554</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>487</v>
@@ -12165,19 +12165,19 @@
         <v>387255</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>356696</v>
+        <v>357845</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>414098</v>
+        <v>415283</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.3513674773615161</v>
+        <v>0.3513674773615162</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3236406659868024</v>
+        <v>0.3246825824564776</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3757225663508794</v>
+        <v>0.3767981891782662</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>138753</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>121860</v>
+        <v>122446</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>159287</v>
+        <v>157990</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.2755778766089032</v>
+        <v>0.2755778766089031</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2420280752276936</v>
+        <v>0.2431913909046763</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.316361357945834</v>
+        <v>0.313785592686914</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>248</v>
@@ -12215,19 +12215,19 @@
         <v>164552</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>147450</v>
+        <v>146259</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>183075</v>
+        <v>182779</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.2748763866637931</v>
+        <v>0.2748763866637932</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2463081387487216</v>
+        <v>0.2443192419109308</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3058186725564402</v>
+        <v>0.3053242003375907</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>411</v>
@@ -12236,19 +12236,19 @@
         <v>303305</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>278397</v>
+        <v>277169</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>330211</v>
+        <v>329442</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.275196853486339</v>
+        <v>0.2751968534863391</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2525978209156751</v>
+        <v>0.251483106541471</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2996101850188176</v>
+        <v>0.298911734160134</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>38858</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>28731</v>
+        <v>28422</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>51743</v>
+        <v>52207</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.07717673686070445</v>
+        <v>0.07717673686070446</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.05706238852158696</v>
+        <v>0.05644942452276216</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1027677597361163</v>
+        <v>0.1036890186197916</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>108</v>
@@ -12286,19 +12286,19 @@
         <v>79611</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>64508</v>
+        <v>65379</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>94094</v>
+        <v>95160</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.1329864764531017</v>
+        <v>0.1329864764531018</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1077576608083908</v>
+        <v>0.1092132608308639</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1571796700271381</v>
+        <v>0.1589601440466905</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>150</v>
@@ -12307,19 +12307,19 @@
         <v>118469</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>100601</v>
+        <v>100636</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>138206</v>
+        <v>137142</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1074905017225008</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.09127771028530639</v>
+        <v>0.09131021517275119</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1253978816331538</v>
+        <v>0.1244323561091933</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>250298</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>216880</v>
+        <v>218121</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>286748</v>
+        <v>287450</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.08661390728377391</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.07504992491128172</v>
+        <v>0.07547943963517342</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.09922713637608976</v>
+        <v>0.0994700107056521</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>342</v>
@@ -12432,19 +12432,19 @@
         <v>259275</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>231934</v>
+        <v>232193</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>288091</v>
+        <v>287297</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.07911870231157427</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0707753523670314</v>
+        <v>0.0708543549757449</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.08791173077660099</v>
+        <v>0.08766954129600699</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>559</v>
@@ -12453,19 +12453,19 @@
         <v>509573</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>466854</v>
+        <v>466888</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>556749</v>
+        <v>556008</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.08263098286813073</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07570374893665918</v>
+        <v>0.07570927021470983</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.09028078456183378</v>
+        <v>0.09016070262973856</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>737938</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>684856</v>
+        <v>687101</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>787288</v>
+        <v>789118</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2553584115338384</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2369899085790833</v>
+        <v>0.2377668312994823</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2724357466301541</v>
+        <v>0.2730691676621716</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1004</v>
@@ -12503,19 +12503,19 @@
         <v>729878</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>689480</v>
+        <v>688406</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>774949</v>
+        <v>772263</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.2227244340812909</v>
+        <v>0.222724434081291</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2103969362752259</v>
+        <v>0.2100693113592426</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2364781110849828</v>
+        <v>0.2356585597237369</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1670</v>
@@ -12524,19 +12524,19 @@
         <v>1467815</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1399922</v>
+        <v>1401115</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1543969</v>
+        <v>1540379</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.238016835678688</v>
+        <v>0.2380168356786881</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.22700752440347</v>
+        <v>0.2272009248952502</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2503656323692841</v>
+        <v>0.2497835459150777</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>812251</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>761961</v>
+        <v>763217</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>867329</v>
+        <v>865903</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.2810739480306077</v>
+        <v>0.2810739480306076</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2636714822579092</v>
+        <v>0.2641061326256607</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.300133444677449</v>
+        <v>0.2996398500769832</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1354</v>
@@ -12574,19 +12574,19 @@
         <v>899285</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>859471</v>
+        <v>858944</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>942120</v>
+        <v>948053</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2744195348781259</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2622700792477268</v>
+        <v>0.262109434844613</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2874908137047205</v>
+        <v>0.2893011511932801</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2183</v>
@@ -12595,19 +12595,19 @@
         <v>1711535</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1641043</v>
+        <v>1646257</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1779046</v>
+        <v>1781718</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.2775378173023484</v>
+        <v>0.2775378173023483</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.266106939714562</v>
+        <v>0.266952509224026</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2884851123026052</v>
+        <v>0.2889184864974833</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>494140</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>455207</v>
+        <v>452619</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>542279</v>
+        <v>534710</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1709939766073913</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1575213479524173</v>
+        <v>0.156625855003405</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1876521446200041</v>
+        <v>0.1850329446629878</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>890</v>
@@ -12645,19 +12645,19 @@
         <v>553910</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>518132</v>
+        <v>519469</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>591532</v>
+        <v>590773</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1690272142033293</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1581094776018672</v>
+        <v>0.1585174427752833</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1805078236700808</v>
+        <v>0.1802762922248178</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1435</v>
@@ -12666,19 +12666,19 @@
         <v>1048050</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>996444</v>
+        <v>994939</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1105764</v>
+        <v>1101748</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.169948846283676</v>
+        <v>0.1699488462836759</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1615805670680903</v>
+        <v>0.1613365440674066</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1793076108151996</v>
+        <v>0.1786563728708571</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>595185</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>552050</v>
+        <v>550752</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>638212</v>
+        <v>639266</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.2059597565443888</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1910331740495415</v>
+        <v>0.1905840864458929</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2208491431472681</v>
+        <v>0.2212137557960222</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>1294</v>
@@ -12716,19 +12716,19 @@
         <v>834696</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>795060</v>
+        <v>787280</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>882539</v>
+        <v>876155</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.2547101145256797</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.2426149595096459</v>
+        <v>0.2402407662314058</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2693096184365663</v>
+        <v>0.2673612373126089</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1963</v>
@@ -12737,19 +12737,19 @@
         <v>1429881</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1366034</v>
+        <v>1371837</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1493738</v>
+        <v>1490661</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2318655178671569</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.2215122794534451</v>
+        <v>0.2224533245301379</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2422204251149299</v>
+        <v>0.2417213787047078</v>
       </c>
     </row>
     <row r="57">
